--- a/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
@@ -13,7 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metadados" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Resumo Adiantamentos'!$A$1:$G$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Resumo Adiantamentos'!$A$1:$G$160</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -127,6 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -12522,7 +12523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12584,13 +12585,13 @@
       </c>
       <c r="B2" s="6" t="inlineStr"/>
       <c r="C2" s="6" t="n">
-        <v>0</v>
+        <v>-13500</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>32053023.61</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>-32053023.61</v>
+        <v>32039523.61</v>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
@@ -12599,7 +12600,7 @@
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MRS LOGISTICA SA: R$ 32053023.61</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12618,7 @@
         <v>-31256851.22</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>31256851.22</v>
+        <v>-31256851.22</v>
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
@@ -12636,11 +12637,7 @@
           <t>002125620014</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>WEIR DO BRASIL LTDA</t>
-        </is>
-      </c>
+      <c r="B4" s="6" t="inlineStr"/>
       <c r="C4" s="6" t="n">
         <v>-23097258.25</v>
       </c>
@@ -12655,7 +12652,11 @@
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr"/>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 23097258.25 | Financeiro: R$ -23097258.25 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -12671,7 +12672,7 @@
         <v>10572052.9</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>-10572052.9</v>
+        <v>10572052.9</v>
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
@@ -12705,7 +12706,11 @@
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 7569911.91 | Financeiro: R$ -7569911.91 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -12715,13 +12720,13 @@
       </c>
       <c r="B7" s="6" t="inlineStr"/>
       <c r="C7" s="6" t="n">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>-5370427.45</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>5370427.45</v>
+        <v>-5380427.45</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
@@ -12730,7 +12735,7 @@
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: FOLHA SALARIO: R$ -5370427.45</t>
         </is>
       </c>
     </row>
@@ -12748,7 +12753,7 @@
         <v>-3135543.21</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>3135543.21</v>
+        <v>-3135543.21</v>
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
@@ -12775,7 +12780,7 @@
         <v>2815942.95</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>-2815942.95</v>
+        <v>2815942.95</v>
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
@@ -12802,7 +12807,7 @@
         <v>-2079197.59</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>2079197.59</v>
+        <v>-2079197.59</v>
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
@@ -12829,7 +12834,7 @@
         <v>1820000</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>-1820000</v>
+        <v>1820000</v>
       </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
@@ -12845,99 +12850,99 @@
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>335925100034</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>CVRD MINA FA RI PEIX</t>
-        </is>
-      </c>
+          <t>070836560007</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr"/>
       <c r="C12" s="6" t="n">
-        <v>-1342060.39</v>
+        <v>-1017270</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>-1342060.39</v>
+        <v>-1017270</v>
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 1017270.0 | Financeiro: R$ -1017270.0 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>331315410001</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>COMPANHIA BRASILEIRA</t>
-        </is>
-      </c>
+          <t>192962690001</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr"/>
       <c r="C13" s="6" t="n">
-        <v>-1329898.51</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>-1329898.51</v>
+        <v>1000000</v>
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G13" s="6" t="inlineStr"/>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>070836560007</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>SAND MIN A R TECHNOL</t>
-        </is>
-      </c>
+          <t>211545540001</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr"/>
       <c r="C14" s="6" t="n">
-        <v>-1017270</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>-1017270</v>
+        <v>1000000</v>
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>192962690001</t>
+          <t>335925100034</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr"/>
       <c r="C15" s="6" t="n">
-        <v>0</v>
+        <v>-1342060.39</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1000000</v>
+        <v>500754.88</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>-1000000</v>
+        <v>-841305.51</v>
       </c>
       <c r="F15" s="6" t="inlineStr">
         <is>
@@ -12946,25 +12951,25 @@
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: VALE SA: R$ 500754.88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>211545540001</t>
+          <t>335925100001</t>
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr"/>
       <c r="C16" s="6" t="n">
-        <v>0</v>
+        <v>-591.92</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>1000000</v>
+        <v>-839238.66</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>-1000000</v>
+        <v>-839830.58</v>
       </c>
       <c r="F16" s="6" t="inlineStr">
         <is>
@@ -12973,14 +12978,14 @@
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: ADIANTAMENTO VALE: R$ -839238.66</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>125381560001</t>
+          <t>108221430001</t>
         </is>
       </c>
       <c r="B17" s="6" t="inlineStr"/>
@@ -12988,10 +12993,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>981393.49</v>
+        <v>693558.49</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>-981393.49</v>
+        <v>693558.49</v>
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
@@ -13005,63 +13010,63 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>125381560001</t>
-        </is>
-      </c>
+      <c r="A18" s="6" t="inlineStr"/>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>MASON EQUIPAMENTOS</t>
+          <t>MUNIC0000</t>
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>-965438.1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
+        <v>564969.54</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>564969.54</v>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>Divergente</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr"/>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>UNIAO0000</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="7" t="n">
-        <v>-965438.1</v>
-      </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="D19" s="6" t="n">
+        <v>-540944.72</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>-540944.72</v>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>143099920001</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>WEG DRIVES E CONTROL</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>-953130.27</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>-953130.27</v>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G19" s="6" t="inlineStr"/>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>143099920001</t>
+          <t>069811760001</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr"/>
@@ -13069,10 +13074,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>953130.27</v>
+        <v>-469440.43</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>-953130.27</v>
+        <v>-469440.43</v>
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
@@ -13088,45 +13093,45 @@
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>335925100007</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>VALE MINA DE FABRICA</t>
-        </is>
-      </c>
+          <t>331315410001</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr"/>
       <c r="C21" s="6" t="n">
-        <v>-951172.45</v>
+        <v>-1329898.51</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0</v>
+        <v>871783.01</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>-951172.45</v>
+        <v>-458115.5</v>
       </c>
       <c r="F21" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento: COMPANHIA BRASILEIRA DE METALU MINERACAO: R$ 871783.01</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>331315410001</t>
+          <t>366696290001</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr"/>
       <c r="C22" s="6" t="n">
+        <v>-400000</v>
+      </c>
+      <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="6" t="n">
-        <v>871783.01</v>
-      </c>
       <c r="E22" s="7" t="n">
-        <v>-871783.01</v>
+        <v>-400000</v>
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
@@ -13135,25 +13140,25 @@
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 400000.0 | Financeiro: R$ -400000.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>335925100001</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr"/>
       <c r="C23" s="6" t="n">
-        <v>0</v>
+        <v>-951172.45</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-839238.66</v>
+        <v>601481.34</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>839238.66</v>
+        <v>-349691.11</v>
       </c>
       <c r="F23" s="6" t="inlineStr">
         <is>
@@ -13162,52 +13167,52 @@
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: VALE SA: R$ 629953.99 | VALE SA: R$ -28472.65</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>174714420001</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>AGRO INDUSTRIAL BELA</t>
-        </is>
-      </c>
+          <t>014093480001</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="inlineStr"/>
       <c r="C24" s="6" t="n">
-        <v>-700000</v>
+        <v>0</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0</v>
+        <v>306000</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>-700000</v>
+        <v>306000</v>
       </c>
       <c r="F24" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G24" s="6" t="inlineStr"/>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>174714420001</t>
+          <t>078765540001</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr"/>
       <c r="C25" s="6" t="n">
+        <v>-266666.67</v>
+      </c>
+      <c r="D25" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="6" t="n">
-        <v>700000</v>
-      </c>
       <c r="E25" s="7" t="n">
-        <v>-700000</v>
+        <v>-266666.67</v>
       </c>
       <c r="F25" s="6" t="inlineStr">
         <is>
@@ -13216,14 +13221,14 @@
       </c>
       <c r="G25" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 266666.67 | Financeiro: R$ -266666.67 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>108221430001</t>
+          <t>172709500001</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr"/>
@@ -13231,10 +13236,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>693558.49</v>
+        <v>200000</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>-693558.49</v>
+        <v>200000</v>
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
@@ -13250,7 +13255,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>335925100007</t>
+          <t>125381560006</t>
         </is>
       </c>
       <c r="B27" s="6" t="inlineStr"/>
@@ -13258,10 +13263,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>601481.34</v>
+        <v>-167746.11</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>-601481.34</v>
+        <v>-167746.11</v>
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
@@ -13275,20 +13280,20 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr"/>
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>MUNIC0000</t>
-        </is>
-      </c>
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>321382770001</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="inlineStr"/>
       <c r="C28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>564969.54</v>
+        <v>150000</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>-564969.54</v>
+        <v>150000</v>
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
@@ -13302,20 +13307,20 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr"/>
-      <c r="B29" s="6" t="inlineStr">
-        <is>
-          <t>UNIAO0000</t>
-        </is>
-      </c>
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>109533790001</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr"/>
       <c r="C29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>-540944.72</v>
+        <v>147610</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>540944.72</v>
+        <v>147610</v>
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
@@ -13331,7 +13336,7 @@
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>335925100034</t>
+          <t>274810320001</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr"/>
@@ -13339,10 +13344,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>500754.88</v>
+        <v>147013.29</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>-500754.88</v>
+        <v>147013.29</v>
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
@@ -13358,7 +13363,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>069811760001</t>
+          <t>256146860001</t>
         </is>
       </c>
       <c r="B31" s="6" t="inlineStr"/>
@@ -13366,10 +13371,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-469440.43</v>
+        <v>-144776.47</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>469440.43</v>
+        <v>-144776.47</v>
       </c>
       <c r="F31" s="6" t="inlineStr">
         <is>
@@ -13383,63 +13388,63 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>366696290001</t>
-        </is>
-      </c>
+      <c r="A32" s="6" t="inlineStr"/>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>MINAS COMUNICA</t>
+          <t>INPS    -0000-INPS</t>
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-400000</v>
+        <v>-130606.48</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>-400000</v>
+        <v>-130606.48</v>
       </c>
       <c r="F32" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G32" s="6" t="inlineStr"/>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 130606.48 | Financeiro: R$ -130606.48 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>063499160001</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="inlineStr">
-        <is>
-          <t>ANDRITZ</t>
-        </is>
-      </c>
+          <t>183639290001</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr"/>
       <c r="C33" s="6" t="n">
-        <v>-321063.08</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0</v>
+        <v>123702.07</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>-321063.08</v>
+        <v>123702.07</v>
       </c>
       <c r="F33" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G33" s="6" t="inlineStr"/>
+      <c r="G33" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>063499160001</t>
+          <t>253721110001</t>
         </is>
       </c>
       <c r="B34" s="6" t="inlineStr"/>
@@ -13447,10 +13452,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>321063.08</v>
+        <v>-112620</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>-321063.08</v>
+        <v>-112620</v>
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
@@ -13466,7 +13471,7 @@
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>014093480001</t>
+          <t>1310269095</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr"/>
@@ -13474,10 +13479,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>306000</v>
+        <v>110502.42</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>-306000</v>
+        <v>110502.42</v>
       </c>
       <c r="F35" s="6" t="inlineStr">
         <is>
@@ -13493,34 +13498,34 @@
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>071757250010</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="inlineStr">
-        <is>
-          <t>WEG EQUIPAMENTOS</t>
-        </is>
-      </c>
+          <t>000000660666</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="inlineStr"/>
       <c r="C36" s="6" t="n">
-        <v>-269722.11</v>
+        <v>0</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>0</v>
+        <v>81537.43000000001</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>-269722.11</v>
+        <v>81537.42999999999</v>
       </c>
       <c r="F36" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G36" s="6" t="inlineStr"/>
+      <c r="G36" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>071757250010</t>
+          <t>082191520001</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr"/>
@@ -13528,10 +13533,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>269722.11</v>
+        <v>80000</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>-269722.11</v>
+        <v>80000</v>
       </c>
       <c r="F37" s="6" t="inlineStr">
         <is>
@@ -13547,34 +13552,34 @@
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>078765540001</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="inlineStr">
-        <is>
-          <t>CASTELLAR GUIMARAES</t>
-        </is>
-      </c>
+          <t>192584800001</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr"/>
       <c r="C38" s="6" t="n">
-        <v>-266666.67</v>
+        <v>-78000</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>-266666.67</v>
+        <v>-78000</v>
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G38" s="6" t="inlineStr"/>
+      <c r="G38" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 78000.0 | Financeiro: R$ -78000.0 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>172709500001</t>
+          <t>378069640001</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr"/>
@@ -13582,10 +13587,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>-200000</v>
+        <v>60000</v>
       </c>
       <c r="F39" s="6" t="inlineStr">
         <is>
@@ -13601,7 +13606,7 @@
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>125381560006</t>
+          <t>117043940001</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr"/>
@@ -13609,10 +13614,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>-167746.11</v>
+        <v>54000</v>
       </c>
       <c r="E40" s="7" t="n">
-        <v>167746.11</v>
+        <v>54000</v>
       </c>
       <c r="F40" s="6" t="inlineStr">
         <is>
@@ -13628,7 +13633,7 @@
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>321382770001</t>
+          <t>312280090001</t>
         </is>
       </c>
       <c r="B41" s="6" t="inlineStr"/>
@@ -13636,10 +13641,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>150000</v>
+        <v>-50982.01</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>-150000</v>
+        <v>-50982.01</v>
       </c>
       <c r="F41" s="6" t="inlineStr">
         <is>
@@ -13655,7 +13660,7 @@
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>109533790001</t>
+          <t>054222430001</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr"/>
@@ -13663,10 +13668,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="6" t="n">
-        <v>147610</v>
+        <v>50000</v>
       </c>
       <c r="E42" s="7" t="n">
-        <v>-147610</v>
+        <v>50000</v>
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
@@ -13682,18 +13687,18 @@
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>274810320001</t>
+          <t>364383340001</t>
         </is>
       </c>
       <c r="B43" s="6" t="inlineStr"/>
       <c r="C43" s="6" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="D43" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="6" t="n">
-        <v>147013.29</v>
-      </c>
       <c r="E43" s="7" t="n">
-        <v>-147013.29</v>
+        <v>-50000</v>
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
@@ -13702,25 +13707,25 @@
       </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 50000.0 | Financeiro: R$ -50000.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>256146860001</t>
+          <t>143070210001</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr"/>
       <c r="C44" s="6" t="n">
+        <v>-49000</v>
+      </c>
+      <c r="D44" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="6" t="n">
-        <v>-144776.47</v>
-      </c>
       <c r="E44" s="7" t="n">
-        <v>144776.47</v>
+        <v>-49000</v>
       </c>
       <c r="F44" s="6" t="inlineStr">
         <is>
@@ -13729,37 +13734,41 @@
       </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
+          <t>Diferença: R$ 49000.0 | Financeiro: R$ -49000.0 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>475125910001</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr"/>
+      <c r="C45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>45640</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>45640</v>
+      </c>
+      <c r="F45" s="6" t="inlineStr">
+        <is>
+          <t>Divergente</t>
+        </is>
+      </c>
+      <c r="G45" s="6" t="inlineStr">
+        <is>
           <t>Adiantamento contábil sem correspondência financeira</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="inlineStr"/>
-      <c r="B45" s="6" t="inlineStr">
-        <is>
-          <t>INPS    -0000-INPS</t>
-        </is>
-      </c>
-      <c r="C45" s="6" t="n">
-        <v>-130606.48</v>
-      </c>
-      <c r="D45" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="7" t="n">
-        <v>-130606.48</v>
-      </c>
-      <c r="F45" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G45" s="6" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>183639290001</t>
+          <t>003603050001</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr"/>
@@ -13767,10 +13776,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="6" t="n">
-        <v>123702.07</v>
+        <v>41959.16</v>
       </c>
       <c r="E46" s="7" t="n">
-        <v>-123702.07</v>
+        <v>41959.16</v>
       </c>
       <c r="F46" s="6" t="inlineStr">
         <is>
@@ -13786,34 +13795,34 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>436264070007</t>
-        </is>
-      </c>
-      <c r="B47" s="6" t="inlineStr">
-        <is>
-          <t>SANDVIK ROCK PROCESS</t>
-        </is>
-      </c>
+          <t>257173640001</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr"/>
       <c r="C47" s="6" t="n">
-        <v>-114450</v>
+        <v>0</v>
       </c>
       <c r="D47" s="6" t="n">
-        <v>0</v>
+        <v>32880</v>
       </c>
       <c r="E47" s="7" t="n">
-        <v>-114450</v>
+        <v>32880</v>
       </c>
       <c r="F47" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G47" s="6" t="inlineStr"/>
+      <c r="G47" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>436264070007</t>
+          <t>182583350001</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr"/>
@@ -13821,10 +13830,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="6" t="n">
-        <v>114450</v>
+        <v>25000</v>
       </c>
       <c r="E48" s="7" t="n">
-        <v>-114450</v>
+        <v>25000</v>
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
@@ -13840,18 +13849,18 @@
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>253721110001</t>
+          <t>495928080001</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr"/>
       <c r="C49" s="6" t="n">
+        <v>-21690</v>
+      </c>
+      <c r="D49" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="6" t="n">
-        <v>-112620</v>
-      </c>
       <c r="E49" s="7" t="n">
-        <v>112620</v>
+        <v>-21690</v>
       </c>
       <c r="F49" s="6" t="inlineStr">
         <is>
@@ -13860,14 +13869,14 @@
       </c>
       <c r="G49" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 21690.0 | Financeiro: R$ -21690.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>1310269095</t>
+          <t>371716630001</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr"/>
@@ -13875,10 +13884,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>110502.42</v>
+        <v>-20121</v>
       </c>
       <c r="E50" s="7" t="n">
-        <v>-110502.42</v>
+        <v>-20121</v>
       </c>
       <c r="F50" s="6" t="inlineStr">
         <is>
@@ -13894,7 +13903,7 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>000000660666</t>
+          <t>082938440001</t>
         </is>
       </c>
       <c r="B51" s="6" t="inlineStr"/>
@@ -13902,10 +13911,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>81537.43000000001</v>
+        <v>16352</v>
       </c>
       <c r="E51" s="7" t="n">
-        <v>-81537.42999999999</v>
+        <v>16352</v>
       </c>
       <c r="F51" s="6" t="inlineStr">
         <is>
@@ -13919,101 +13928,101 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>082191520001</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr"/>
-      <c r="C52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6" t="n">
-        <v>80000</v>
-      </c>
-      <c r="E52" s="7" t="n">
-        <v>-80000</v>
-      </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+      <c r="A52" s="8" t="inlineStr">
+        <is>
+          <t>125381560001</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="inlineStr"/>
+      <c r="C52" s="8" t="n">
+        <v>-965438.1</v>
+      </c>
+      <c r="D52" s="8" t="n">
+        <v>981393.49</v>
+      </c>
+      <c r="E52" s="9" t="n">
+        <v>15955.39</v>
+      </c>
+      <c r="F52" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: MASON EQUIPAMENTOS LTDA: R$ 981393.49</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>192584800001</t>
-        </is>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
-        <is>
-          <t>GMQ PARTICIPACOES LT</t>
-        </is>
-      </c>
+          <t>246630680001</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr"/>
       <c r="C53" s="6" t="n">
-        <v>-78000</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6" t="n">
-        <v>0</v>
+        <v>13440</v>
       </c>
       <c r="E53" s="7" t="n">
-        <v>-78000</v>
+        <v>13440</v>
       </c>
       <c r="F53" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G53" s="6" t="inlineStr"/>
+      <c r="G53" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="inlineStr">
         <is>
-          <t>174313540001</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
-        <is>
-          <t>TAKONO</t>
-        </is>
-      </c>
+          <t>00000000006</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr"/>
       <c r="C54" s="6" t="n">
-        <v>-67763.95</v>
+        <v>-13133.46</v>
       </c>
       <c r="D54" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E54" s="7" t="n">
-        <v>-67763.95</v>
+        <v>-13133.46</v>
       </c>
       <c r="F54" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G54" s="6" t="inlineStr"/>
+      <c r="G54" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 13133.46 | Financeiro: R$ -13133.46 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="inlineStr">
-        <is>
-          <t>174313540001</t>
-        </is>
-      </c>
-      <c r="B55" s="6" t="inlineStr"/>
+      <c r="A55" s="6" t="inlineStr"/>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>MUNIC   -0000-MUNICIPIO</t>
+        </is>
+      </c>
       <c r="C55" s="6" t="n">
+        <v>-12932.48</v>
+      </c>
+      <c r="D55" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D55" s="6" t="n">
-        <v>67763.95</v>
-      </c>
       <c r="E55" s="7" t="n">
-        <v>-67763.95</v>
+        <v>-12932.48</v>
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
@@ -14022,25 +14031,25 @@
       </c>
       <c r="G55" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 12932.48 | Financeiro: R$ -12932.48 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
-          <t>378069640001</t>
+          <t>479609501002</t>
         </is>
       </c>
       <c r="B56" s="6" t="inlineStr"/>
       <c r="C56" s="6" t="n">
-        <v>0</v>
+        <v>-86.3</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>60000</v>
+        <v>9893.379999999999</v>
       </c>
       <c r="E56" s="7" t="n">
-        <v>-60000</v>
+        <v>9807.08</v>
       </c>
       <c r="F56" s="6" t="inlineStr">
         <is>
@@ -14049,41 +14058,41 @@
       </c>
       <c r="G56" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MAGAZINE LUIZA S/A: R$ 22993.96 | MAGAZINE LUIZA S/A: R$ 1747.26 | MAGAZINE LUIZA S/A: R$ 8146.12 | MAGAZINE LUIZA S/A: R$ -22993.96</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>069427930001</t>
-        </is>
-      </c>
-      <c r="B57" s="6" t="inlineStr">
-        <is>
-          <t>ELETRO PAINEL</t>
-        </is>
-      </c>
+          <t>348781110001</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr"/>
       <c r="C57" s="6" t="n">
-        <v>-55395.27</v>
+        <v>-9640</v>
       </c>
       <c r="D57" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E57" s="7" t="n">
-        <v>-55395.27</v>
+        <v>-9640</v>
       </c>
       <c r="F57" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G57" s="6" t="inlineStr"/>
+      <c r="G57" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 9640.0 | Financeiro: R$ -9640.0 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
-          <t>069427930001</t>
+          <t>501626820001</t>
         </is>
       </c>
       <c r="B58" s="6" t="inlineStr"/>
@@ -14091,10 +14100,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="6" t="n">
-        <v>55395.27</v>
+        <v>8323.459999999999</v>
       </c>
       <c r="E58" s="7" t="n">
-        <v>-55395.27</v>
+        <v>8323.459999999999</v>
       </c>
       <c r="F58" s="6" t="inlineStr">
         <is>
@@ -14110,18 +14119,18 @@
     <row r="59">
       <c r="A59" s="6" t="inlineStr">
         <is>
-          <t>117043940001</t>
+          <t>479609500265</t>
         </is>
       </c>
       <c r="B59" s="6" t="inlineStr"/>
       <c r="C59" s="6" t="n">
-        <v>0</v>
+        <v>-1747.26</v>
       </c>
       <c r="D59" s="6" t="n">
-        <v>54000</v>
+        <v>9893.379999999999</v>
       </c>
       <c r="E59" s="7" t="n">
-        <v>-54000</v>
+        <v>8146.12</v>
       </c>
       <c r="F59" s="6" t="inlineStr">
         <is>
@@ -14130,79 +14139,79 @@
       </c>
       <c r="G59" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MAGAZINE LUIZA S/A: R$ 22993.96 | MAGAZINE LUIZA S/A: R$ 1747.26 | MAGAZINE LUIZA S/A: R$ 8146.12 | MAGAZINE LUIZA S/A: R$ -22993.96</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="inlineStr">
         <is>
-          <t>723811890010</t>
-        </is>
-      </c>
-      <c r="B60" s="6" t="inlineStr">
-        <is>
-          <t>DELL COMPUTADORES DO</t>
-        </is>
-      </c>
+          <t>208552710001</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="inlineStr"/>
       <c r="C60" s="6" t="n">
-        <v>-53518.32</v>
+        <v>-7543</v>
       </c>
       <c r="D60" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E60" s="7" t="n">
-        <v>-53518.32</v>
+        <v>-7543</v>
       </c>
       <c r="F60" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G60" s="6" t="inlineStr"/>
+      <c r="G60" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 7543.0 | Financeiro: R$ -7543.0 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>049153150001</t>
-        </is>
-      </c>
-      <c r="B61" s="6" t="inlineStr">
-        <is>
-          <t>VENTANA SERRA BR AGE</t>
-        </is>
-      </c>
+          <t>256625110001</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr"/>
       <c r="C61" s="6" t="n">
-        <v>-51119.2</v>
+        <v>-7508.4</v>
       </c>
       <c r="D61" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E61" s="7" t="n">
-        <v>-51119.2</v>
+        <v>-7508.4</v>
       </c>
       <c r="F61" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G61" s="6" t="inlineStr"/>
+      <c r="G61" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 7508.4 | Financeiro: R$ -7508.4 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="inlineStr">
         <is>
-          <t>049153150001</t>
+          <t>584880460001</t>
         </is>
       </c>
       <c r="B62" s="6" t="inlineStr"/>
       <c r="C62" s="6" t="n">
+        <v>-7170</v>
+      </c>
+      <c r="D62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="6" t="n">
-        <v>51119.2</v>
-      </c>
       <c r="E62" s="7" t="n">
-        <v>-51119.2</v>
+        <v>-7170</v>
       </c>
       <c r="F62" s="6" t="inlineStr">
         <is>
@@ -14211,52 +14220,52 @@
       </c>
       <c r="G62" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 7170.0 | Financeiro: R$ -7170.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="inlineStr">
         <is>
-          <t>073587610239</t>
-        </is>
-      </c>
-      <c r="B63" s="6" t="inlineStr">
-        <is>
-          <t>GERDAU ACOS LONGOS</t>
-        </is>
-      </c>
+          <t>723811890010</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr"/>
       <c r="C63" s="6" t="n">
-        <v>-50987.3</v>
+        <v>-53518.32</v>
       </c>
       <c r="D63" s="6" t="n">
-        <v>0</v>
+        <v>46769.37</v>
       </c>
       <c r="E63" s="7" t="n">
-        <v>-50987.3</v>
+        <v>-6748.95</v>
       </c>
       <c r="F63" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G63" s="6" t="inlineStr"/>
+      <c r="G63" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento: DELL COMPUTADORES DO BRASIL LTDA: R$ 46769.37</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
         <is>
-          <t>073587610239</t>
+          <t>212653920001</t>
         </is>
       </c>
       <c r="B64" s="6" t="inlineStr"/>
       <c r="C64" s="6" t="n">
+        <v>-6600</v>
+      </c>
+      <c r="D64" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D64" s="6" t="n">
-        <v>50987.3</v>
-      </c>
       <c r="E64" s="7" t="n">
-        <v>-50987.3</v>
+        <v>-6600</v>
       </c>
       <c r="F64" s="6" t="inlineStr">
         <is>
@@ -14265,14 +14274,14 @@
       </c>
       <c r="G64" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 6600.0 | Financeiro: R$ -6600.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="inlineStr">
         <is>
-          <t>312280090001</t>
+          <t>086839640002</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr"/>
@@ -14280,10 +14289,10 @@
         <v>0</v>
       </c>
       <c r="D65" s="6" t="n">
-        <v>-50982.01</v>
+        <v>6480</v>
       </c>
       <c r="E65" s="7" t="n">
-        <v>50982.01</v>
+        <v>6480</v>
       </c>
       <c r="F65" s="6" t="inlineStr">
         <is>
@@ -14299,18 +14308,18 @@
     <row r="66">
       <c r="A66" s="6" t="inlineStr">
         <is>
-          <t>054222430001</t>
+          <t>203255420001</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr"/>
       <c r="C66" s="6" t="n">
+        <v>-6400</v>
+      </c>
+      <c r="D66" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="6" t="n">
-        <v>50000</v>
-      </c>
       <c r="E66" s="7" t="n">
-        <v>-50000</v>
+        <v>-6400</v>
       </c>
       <c r="F66" s="6" t="inlineStr">
         <is>
@@ -14319,95 +14328,95 @@
       </c>
       <c r="G66" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 6400.0 | Financeiro: R$ -6400.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>364383340001</t>
-        </is>
-      </c>
-      <c r="B67" s="6" t="inlineStr">
-        <is>
-          <t>ALINE PARREIRAS</t>
-        </is>
-      </c>
+          <t>319497090001</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr"/>
       <c r="C67" s="6" t="n">
-        <v>-50000</v>
+        <v>-6357.8</v>
       </c>
       <c r="D67" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E67" s="7" t="n">
-        <v>-50000</v>
+        <v>-6357.8</v>
       </c>
       <c r="F67" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G67" s="6" t="inlineStr"/>
+      <c r="G67" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 6357.8 | Financeiro: R$ -6357.8 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="inlineStr">
         <is>
-          <t>143070210001</t>
-        </is>
-      </c>
-      <c r="B68" s="6" t="inlineStr">
-        <is>
-          <t>RSOM PRODUCOES E EVE</t>
-        </is>
-      </c>
+          <t>215131140001</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="inlineStr"/>
       <c r="C68" s="6" t="n">
-        <v>-49000</v>
+        <v>-6250</v>
       </c>
       <c r="D68" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E68" s="7" t="n">
-        <v>-49000</v>
+        <v>-6250</v>
       </c>
       <c r="F68" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G68" s="6" t="inlineStr"/>
+      <c r="G68" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 6250.0 | Financeiro: R$ -6250.0 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>335925100044</t>
-        </is>
-      </c>
-      <c r="B69" s="6" t="inlineStr">
-        <is>
-          <t>CVRD MINA DE PICO</t>
-        </is>
-      </c>
+          <t>137543370002</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr"/>
       <c r="C69" s="6" t="n">
-        <v>-48436.51</v>
+        <v>-5800</v>
       </c>
       <c r="D69" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E69" s="7" t="n">
-        <v>-48436.51</v>
+        <v>-5800</v>
       </c>
       <c r="F69" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G69" s="6" t="inlineStr"/>
+      <c r="G69" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 5800.0 | Financeiro: R$ -5800.0 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="6" t="inlineStr">
         <is>
-          <t>335925100044</t>
+          <t>197595540001</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr"/>
@@ -14415,10 +14424,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="6" t="n">
-        <v>48436.51</v>
+        <v>5800</v>
       </c>
       <c r="E70" s="7" t="n">
-        <v>-48436.51</v>
+        <v>5800</v>
       </c>
       <c r="F70" s="6" t="inlineStr">
         <is>
@@ -14434,7 +14443,7 @@
     <row r="71">
       <c r="A71" s="6" t="inlineStr">
         <is>
-          <t>723811890010</t>
+          <t>000000000000</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr"/>
@@ -14442,10 +14451,10 @@
         <v>0</v>
       </c>
       <c r="D71" s="6" t="n">
-        <v>46769.37</v>
+        <v>5636.09</v>
       </c>
       <c r="E71" s="7" t="n">
-        <v>-46769.37</v>
+        <v>5636.09</v>
       </c>
       <c r="F71" s="6" t="inlineStr">
         <is>
@@ -14461,7 +14470,7 @@
     <row r="72">
       <c r="A72" s="6" t="inlineStr">
         <is>
-          <t>475125910001</t>
+          <t>055291170009</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr"/>
@@ -14469,10 +14478,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="6" t="n">
-        <v>45640</v>
+        <v>5395.6</v>
       </c>
       <c r="E72" s="7" t="n">
-        <v>-45640</v>
+        <v>5395.6</v>
       </c>
       <c r="F72" s="6" t="inlineStr">
         <is>
@@ -14488,18 +14497,18 @@
     <row r="73">
       <c r="A73" s="6" t="inlineStr">
         <is>
-          <t>003603050001</t>
+          <t>431625040001</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr"/>
       <c r="C73" s="6" t="n">
+        <v>-5298</v>
+      </c>
+      <c r="D73" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="6" t="n">
-        <v>41959.16</v>
-      </c>
       <c r="E73" s="7" t="n">
-        <v>-41959.16</v>
+        <v>-5298</v>
       </c>
       <c r="F73" s="6" t="inlineStr">
         <is>
@@ -14508,41 +14517,41 @@
       </c>
       <c r="G73" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 5298.0 | Financeiro: R$ -5298.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6" t="inlineStr">
         <is>
-          <t>436264070006</t>
-        </is>
-      </c>
-      <c r="B74" s="6" t="inlineStr">
-        <is>
-          <t>SANDVIK ROCK PROCESS</t>
-        </is>
-      </c>
+          <t>304572050001</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr"/>
       <c r="C74" s="6" t="n">
-        <v>-39300</v>
+        <v>-4795.2</v>
       </c>
       <c r="D74" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E74" s="7" t="n">
-        <v>-39300</v>
+        <v>-4795.2</v>
       </c>
       <c r="F74" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G74" s="6" t="inlineStr"/>
+      <c r="G74" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 4795.2 | Financeiro: R$ -4795.2 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="inlineStr">
         <is>
-          <t>436264070006</t>
+          <t>484370560001</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr"/>
@@ -14550,10 +14559,10 @@
         <v>0</v>
       </c>
       <c r="D75" s="6" t="n">
-        <v>39300</v>
+        <v>-4302.9</v>
       </c>
       <c r="E75" s="7" t="n">
-        <v>-39300</v>
+        <v>-4302.9</v>
       </c>
       <c r="F75" s="6" t="inlineStr">
         <is>
@@ -14569,45 +14578,45 @@
     <row r="76">
       <c r="A76" s="6" t="inlineStr">
         <is>
-          <t>071757250004</t>
-        </is>
-      </c>
-      <c r="B76" s="6" t="inlineStr">
-        <is>
-          <t>WEG EQUIPAMENTOS</t>
-        </is>
-      </c>
+          <t>411478720001</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="inlineStr"/>
       <c r="C76" s="6" t="n">
-        <v>-37995.28</v>
+        <v>-3800</v>
       </c>
       <c r="D76" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E76" s="7" t="n">
-        <v>-37995.28</v>
+        <v>-3800</v>
       </c>
       <c r="F76" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G76" s="6" t="inlineStr"/>
+      <c r="G76" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 3800.0 | Financeiro: R$ -3800.0 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="6" t="inlineStr">
         <is>
-          <t>071757250004</t>
+          <t>519483440001</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr"/>
       <c r="C77" s="6" t="n">
+        <v>-3460</v>
+      </c>
+      <c r="D77" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D77" s="6" t="n">
-        <v>37995.28</v>
-      </c>
       <c r="E77" s="7" t="n">
-        <v>-37995.28</v>
+        <v>-3460</v>
       </c>
       <c r="F77" s="6" t="inlineStr">
         <is>
@@ -14616,52 +14625,52 @@
       </c>
       <c r="G77" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 3460.0 | Financeiro: R$ -3460.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6" t="inlineStr">
         <is>
-          <t>171701500001</t>
-        </is>
-      </c>
-      <c r="B78" s="6" t="inlineStr">
-        <is>
-          <t>VALLOUREC TUBOS DO B</t>
-        </is>
-      </c>
+          <t>036827840683</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr"/>
       <c r="C78" s="6" t="n">
-        <v>-37639.54</v>
+        <v>0</v>
       </c>
       <c r="D78" s="6" t="n">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="E78" s="7" t="n">
-        <v>-37639.54</v>
+        <v>3300</v>
       </c>
       <c r="F78" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G78" s="6" t="inlineStr"/>
+      <c r="G78" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="6" t="inlineStr">
         <is>
-          <t>171701500001</t>
+          <t>384602480001</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr"/>
       <c r="C79" s="6" t="n">
+        <v>-3200</v>
+      </c>
+      <c r="D79" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D79" s="6" t="n">
-        <v>37639.54</v>
-      </c>
       <c r="E79" s="7" t="n">
-        <v>-37639.54</v>
+        <v>-3200</v>
       </c>
       <c r="F79" s="6" t="inlineStr">
         <is>
@@ -14670,14 +14679,14 @@
       </c>
       <c r="G79" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 3200.0 | Financeiro: R$ -3200.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="inlineStr">
         <is>
-          <t>257173640001</t>
+          <t>030073310008</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr"/>
@@ -14685,10 +14694,10 @@
         <v>0</v>
       </c>
       <c r="D80" s="6" t="n">
-        <v>32880</v>
+        <v>3194.5</v>
       </c>
       <c r="E80" s="7" t="n">
-        <v>-32880</v>
+        <v>3194.5</v>
       </c>
       <c r="F80" s="6" t="inlineStr">
         <is>
@@ -14704,18 +14713,18 @@
     <row r="81">
       <c r="A81" s="6" t="inlineStr">
         <is>
-          <t>182583350001</t>
+          <t>355211640001</t>
         </is>
       </c>
       <c r="B81" s="6" t="inlineStr"/>
       <c r="C81" s="6" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="D81" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D81" s="6" t="n">
-        <v>25000</v>
-      </c>
       <c r="E81" s="7" t="n">
-        <v>-25000</v>
+        <v>-3000</v>
       </c>
       <c r="F81" s="6" t="inlineStr">
         <is>
@@ -14724,14 +14733,14 @@
       </c>
       <c r="G81" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 3000.0 | Financeiro: R$ -3000.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="inlineStr">
         <is>
-          <t>479609500001</t>
+          <t>057502270001</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr"/>
@@ -14739,10 +14748,10 @@
         <v>0</v>
       </c>
       <c r="D82" s="6" t="n">
-        <v>22993.96</v>
+        <v>2840</v>
       </c>
       <c r="E82" s="7" t="n">
-        <v>-22993.96</v>
+        <v>2840</v>
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
@@ -14758,18 +14767,18 @@
     <row r="83">
       <c r="A83" s="6" t="inlineStr">
         <is>
-          <t>479609500945</t>
+          <t>651772140001</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr"/>
       <c r="C83" s="6" t="n">
+        <v>-2800</v>
+      </c>
+      <c r="D83" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D83" s="6" t="n">
-        <v>-22993.96</v>
-      </c>
       <c r="E83" s="7" t="n">
-        <v>22993.96</v>
+        <v>-2800</v>
       </c>
       <c r="F83" s="6" t="inlineStr">
         <is>
@@ -14778,52 +14787,52 @@
       </c>
       <c r="G83" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 2800.0 | Financeiro: R$ -2800.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6" t="inlineStr">
         <is>
-          <t>009726960001</t>
-        </is>
-      </c>
-      <c r="B84" s="6" t="inlineStr">
-        <is>
-          <t>TRANSPORTE GENEROSO</t>
-        </is>
-      </c>
+          <t>030073310010</t>
+        </is>
+      </c>
+      <c r="B84" s="6" t="inlineStr"/>
       <c r="C84" s="6" t="n">
-        <v>-22500</v>
+        <v>0</v>
       </c>
       <c r="D84" s="6" t="n">
-        <v>0</v>
+        <v>-2664.52</v>
       </c>
       <c r="E84" s="7" t="n">
-        <v>-22500</v>
+        <v>-2664.52</v>
       </c>
       <c r="F84" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G84" s="6" t="inlineStr"/>
+      <c r="G84" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="6" t="inlineStr">
         <is>
-          <t>009726960001</t>
+          <t>073275290001</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr"/>
       <c r="C85" s="6" t="n">
+        <v>-2600</v>
+      </c>
+      <c r="D85" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D85" s="6" t="n">
-        <v>22500</v>
-      </c>
       <c r="E85" s="7" t="n">
-        <v>-22500</v>
+        <v>-2600</v>
       </c>
       <c r="F85" s="6" t="inlineStr">
         <is>
@@ -14832,41 +14841,41 @@
       </c>
       <c r="G85" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 2600.0 | Financeiro: R$ -2600.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6" t="inlineStr">
         <is>
-          <t>495928080001</t>
-        </is>
-      </c>
-      <c r="B86" s="6" t="inlineStr">
-        <is>
-          <t>REALCE CONSTRUCAO</t>
-        </is>
-      </c>
+          <t>092641940001</t>
+        </is>
+      </c>
+      <c r="B86" s="6" t="inlineStr"/>
       <c r="C86" s="6" t="n">
-        <v>-21690</v>
+        <v>0</v>
       </c>
       <c r="D86" s="6" t="n">
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="E86" s="7" t="n">
-        <v>-21690</v>
+        <v>2520</v>
       </c>
       <c r="F86" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G86" s="6" t="inlineStr"/>
+      <c r="G86" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="inlineStr">
         <is>
-          <t>371716630001</t>
+          <t>172819730013</t>
         </is>
       </c>
       <c r="B87" s="6" t="inlineStr"/>
@@ -14874,10 +14883,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="6" t="n">
-        <v>-20121</v>
+        <v>-2444.16</v>
       </c>
       <c r="E87" s="7" t="n">
-        <v>20121</v>
+        <v>-2444.16</v>
       </c>
       <c r="F87" s="6" t="inlineStr">
         <is>
@@ -14893,45 +14902,45 @@
     <row r="88">
       <c r="A88" s="6" t="inlineStr">
         <is>
-          <t>403391050001</t>
-        </is>
-      </c>
-      <c r="B88" s="6" t="inlineStr">
-        <is>
-          <t>G P S GERENCIA PRO S</t>
-        </is>
-      </c>
+          <t>171949940004</t>
+        </is>
+      </c>
+      <c r="B88" s="6" t="inlineStr"/>
       <c r="C88" s="6" t="n">
-        <v>-19168.5</v>
+        <v>0</v>
       </c>
       <c r="D88" s="6" t="n">
-        <v>0</v>
+        <v>-2351.03</v>
       </c>
       <c r="E88" s="7" t="n">
-        <v>-19168.5</v>
+        <v>-2351.03</v>
       </c>
       <c r="F88" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G88" s="6" t="inlineStr"/>
+      <c r="G88" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="inlineStr">
         <is>
-          <t>403391050001</t>
+          <t>104267150001</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr"/>
       <c r="C89" s="6" t="n">
-        <v>0</v>
+        <v>-3030</v>
       </c>
       <c r="D89" s="6" t="n">
-        <v>19168.5</v>
+        <v>5281.45</v>
       </c>
       <c r="E89" s="7" t="n">
-        <v>-19168.5</v>
+        <v>2251.45</v>
       </c>
       <c r="F89" s="6" t="inlineStr">
         <is>
@@ -14940,14 +14949,14 @@
       </c>
       <c r="G89" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: CONSORCIO OTIMO DE BILHETAGEM ELETRONICA: R$ 5281.45</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="6" t="inlineStr">
         <is>
-          <t>082938440001</t>
+          <t>131316920001</t>
         </is>
       </c>
       <c r="B90" s="6" t="inlineStr"/>
@@ -14955,10 +14964,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="6" t="n">
-        <v>16352</v>
+        <v>-1960.17</v>
       </c>
       <c r="E90" s="7" t="n">
-        <v>-16352</v>
+        <v>-1960.17</v>
       </c>
       <c r="F90" s="6" t="inlineStr">
         <is>
@@ -14974,34 +14983,34 @@
     <row r="91">
       <c r="A91" s="6" t="inlineStr">
         <is>
-          <t>009726960003</t>
-        </is>
-      </c>
-      <c r="B91" s="6" t="inlineStr">
-        <is>
-          <t>TRANSPORTE GENEROSO</t>
-        </is>
-      </c>
+          <t>479609500643</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr"/>
       <c r="C91" s="6" t="n">
-        <v>-15300</v>
+        <v>-8146.12</v>
       </c>
       <c r="D91" s="6" t="n">
-        <v>0</v>
+        <v>9893.379999999999</v>
       </c>
       <c r="E91" s="7" t="n">
-        <v>-15300</v>
+        <v>1747.26</v>
       </c>
       <c r="F91" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G91" s="6" t="inlineStr"/>
+      <c r="G91" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento: MAGAZINE LUIZA S/A: R$ 22993.96 | MAGAZINE LUIZA S/A: R$ 1747.26 | MAGAZINE LUIZA S/A: R$ 8146.12 | MAGAZINE LUIZA S/A: R$ -22993.96</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="inlineStr">
         <is>
-          <t>009726960003</t>
+          <t>214631740001</t>
         </is>
       </c>
       <c r="B92" s="6" t="inlineStr"/>
@@ -15009,10 +15018,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="6" t="n">
-        <v>15300</v>
+        <v>1599.9</v>
       </c>
       <c r="E92" s="7" t="n">
-        <v>-15300</v>
+        <v>1599.9</v>
       </c>
       <c r="F92" s="6" t="inlineStr">
         <is>
@@ -15028,45 +15037,45 @@
     <row r="93">
       <c r="A93" s="6" t="inlineStr">
         <is>
-          <t>012913870006</t>
-        </is>
-      </c>
-      <c r="B93" s="6" t="inlineStr">
-        <is>
-          <t>GRAND POINT</t>
-        </is>
-      </c>
+          <t>214631740002</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr"/>
       <c r="C93" s="6" t="n">
-        <v>-15000</v>
+        <v>0</v>
       </c>
       <c r="D93" s="6" t="n">
-        <v>0</v>
+        <v>-1599.9</v>
       </c>
       <c r="E93" s="7" t="n">
-        <v>-15000</v>
+        <v>-1599.9</v>
       </c>
       <c r="F93" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G93" s="6" t="inlineStr"/>
+      <c r="G93" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="inlineStr">
         <is>
-          <t>012913870006</t>
+          <t>417110100001</t>
         </is>
       </c>
       <c r="B94" s="6" t="inlineStr"/>
       <c r="C94" s="6" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="D94" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D94" s="6" t="n">
-        <v>15000</v>
-      </c>
       <c r="E94" s="7" t="n">
-        <v>-15000</v>
+        <v>-1500</v>
       </c>
       <c r="F94" s="6" t="inlineStr">
         <is>
@@ -15075,52 +15084,52 @@
       </c>
       <c r="G94" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 1500.0 | Financeiro: R$ -1500.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="inlineStr">
         <is>
-          <t>293023480003</t>
-        </is>
-      </c>
-      <c r="B95" s="6" t="inlineStr">
-        <is>
-          <t>GURGELMIX MAQUINAS E</t>
-        </is>
-      </c>
+          <t>194682420001</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr"/>
       <c r="C95" s="6" t="n">
-        <v>-13699.8</v>
+        <v>0</v>
       </c>
       <c r="D95" s="6" t="n">
-        <v>0</v>
+        <v>1458.6</v>
       </c>
       <c r="E95" s="7" t="n">
-        <v>-13699.8</v>
+        <v>1458.6</v>
       </c>
       <c r="F95" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G95" s="6" t="inlineStr"/>
+      <c r="G95" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="inlineStr">
         <is>
-          <t>293023480003</t>
+          <t>119726330002</t>
         </is>
       </c>
       <c r="B96" s="6" t="inlineStr"/>
       <c r="C96" s="6" t="n">
+        <v>-1283.24</v>
+      </c>
+      <c r="D96" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D96" s="6" t="n">
-        <v>13699.8</v>
-      </c>
       <c r="E96" s="7" t="n">
-        <v>-13699.8</v>
+        <v>-1283.24</v>
       </c>
       <c r="F96" s="6" t="inlineStr">
         <is>
@@ -15129,183 +15138,187 @@
       </c>
       <c r="G96" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 1283.24 | Financeiro: R$ -1283.24 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="inlineStr">
         <is>
-          <t>014172220001</t>
-        </is>
-      </c>
-      <c r="B97" s="6" t="inlineStr">
-        <is>
-          <t>EST UNIFICADO</t>
-        </is>
-      </c>
+          <t>085841160009</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr"/>
       <c r="C97" s="6" t="n">
-        <v>-13500</v>
+        <v>0</v>
       </c>
       <c r="D97" s="6" t="n">
+        <v>1150.97</v>
+      </c>
+      <c r="E97" s="7" t="n">
+        <v>1150.97</v>
+      </c>
+      <c r="F97" s="6" t="inlineStr">
+        <is>
+          <t>Divergente</t>
+        </is>
+      </c>
+      <c r="G97" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="inlineStr"/>
+      <c r="B98" s="6" t="inlineStr">
+        <is>
+          <t>ESTADO  -00  -ESTADO</t>
+        </is>
+      </c>
+      <c r="C98" s="6" t="n">
+        <v>-1034.82</v>
+      </c>
+      <c r="D98" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E97" s="7" t="n">
-        <v>-13500</v>
-      </c>
-      <c r="F97" s="6" t="inlineStr">
+      <c r="E98" s="7" t="n">
+        <v>-1034.82</v>
+      </c>
+      <c r="F98" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G97" s="6" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="6" t="inlineStr">
-        <is>
-          <t>246630680001</t>
-        </is>
-      </c>
-      <c r="B98" s="6" t="inlineStr"/>
-      <c r="C98" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" s="6" t="n">
-        <v>13440</v>
-      </c>
-      <c r="E98" s="7" t="n">
-        <v>-13440</v>
-      </c>
-      <c r="F98" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 1034.82 | Financeiro: R$ -1034.82 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="inlineStr">
         <is>
-          <t>00000000006</t>
-        </is>
-      </c>
-      <c r="B99" s="6" t="inlineStr">
-        <is>
-          <t>ACORDO TRAB</t>
-        </is>
-      </c>
+          <t>171553420010</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr"/>
       <c r="C99" s="6" t="n">
-        <v>-13133.46</v>
+        <v>0</v>
       </c>
       <c r="D99" s="6" t="n">
+        <v>-864</v>
+      </c>
+      <c r="E99" s="7" t="n">
+        <v>-864</v>
+      </c>
+      <c r="F99" s="6" t="inlineStr">
+        <is>
+          <t>Divergente</t>
+        </is>
+      </c>
+      <c r="G99" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="inlineStr">
+        <is>
+          <t>060369390001</t>
+        </is>
+      </c>
+      <c r="B100" s="6" t="inlineStr"/>
+      <c r="C100" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E99" s="7" t="n">
-        <v>-13133.46</v>
-      </c>
-      <c r="F99" s="6" t="inlineStr">
+      <c r="D100" s="6" t="n">
+        <v>-844</v>
+      </c>
+      <c r="E100" s="7" t="n">
+        <v>-844</v>
+      </c>
+      <c r="F100" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G99" s="6" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="6" t="inlineStr"/>
-      <c r="B100" s="6" t="inlineStr">
-        <is>
-          <t>MUNIC   -0000-MUNICIPIO</t>
-        </is>
-      </c>
-      <c r="C100" s="6" t="n">
-        <v>-12932.48</v>
-      </c>
-      <c r="D100" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" s="7" t="n">
-        <v>-12932.48</v>
-      </c>
-      <c r="F100" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G100" s="6" t="inlineStr"/>
+      <c r="G100" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
         <is>
-          <t>909999990999</t>
-        </is>
-      </c>
-      <c r="B101" s="6" t="inlineStr">
-        <is>
-          <t>FOLHA SALARIO</t>
-        </is>
-      </c>
+          <t>043802600001</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr"/>
       <c r="C101" s="6" t="n">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="D101" s="6" t="n">
-        <v>0</v>
+        <v>-840</v>
       </c>
       <c r="E101" s="7" t="n">
-        <v>-10000</v>
+        <v>-840</v>
       </c>
       <c r="F101" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G101" s="6" t="inlineStr"/>
+      <c r="G101" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="6" t="inlineStr">
         <is>
-          <t>348781110001</t>
-        </is>
-      </c>
-      <c r="B102" s="6" t="inlineStr">
-        <is>
-          <t>MAPA LOCACOES DE CON</t>
-        </is>
-      </c>
+          <t>079438810001</t>
+        </is>
+      </c>
+      <c r="B102" s="6" t="inlineStr"/>
       <c r="C102" s="6" t="n">
-        <v>-9640</v>
+        <v>-770</v>
       </c>
       <c r="D102" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E102" s="7" t="n">
-        <v>-9640</v>
+        <v>-770</v>
       </c>
       <c r="F102" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G102" s="6" t="inlineStr"/>
+      <c r="G102" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 770.0 | Financeiro: R$ -770.0 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="inlineStr">
         <is>
-          <t>501626820001</t>
+          <t>076499950001</t>
         </is>
       </c>
       <c r="B103" s="6" t="inlineStr"/>
       <c r="C103" s="6" t="n">
+        <v>-762</v>
+      </c>
+      <c r="D103" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D103" s="6" t="n">
-        <v>8323.459999999999</v>
-      </c>
       <c r="E103" s="7" t="n">
-        <v>-8323.459999999999</v>
+        <v>-762</v>
       </c>
       <c r="F103" s="6" t="inlineStr">
         <is>
@@ -15314,41 +15327,41 @@
       </c>
       <c r="G103" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Diferença: R$ 762.0 | Financeiro: R$ -762.0 | Contábil: R$ 0.0</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6" t="inlineStr">
         <is>
-          <t>479609500643</t>
-        </is>
-      </c>
-      <c r="B104" s="6" t="inlineStr">
-        <is>
-          <t>MAGAZINE LUIZA S/A</t>
-        </is>
-      </c>
+          <t>261226840001</t>
+        </is>
+      </c>
+      <c r="B104" s="6" t="inlineStr"/>
       <c r="C104" s="6" t="n">
-        <v>-8146.12</v>
+        <v>-662.9</v>
       </c>
       <c r="D104" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E104" s="7" t="n">
-        <v>-8146.12</v>
+        <v>-662.9</v>
       </c>
       <c r="F104" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G104" s="6" t="inlineStr"/>
+      <c r="G104" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 662.9 | Financeiro: R$ -662.9 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="inlineStr">
         <is>
-          <t>479609500643</t>
+          <t>206958820001</t>
         </is>
       </c>
       <c r="B105" s="6" t="inlineStr"/>
@@ -15356,10 +15369,10 @@
         <v>0</v>
       </c>
       <c r="D105" s="6" t="n">
-        <v>8146.12</v>
+        <v>-654.05</v>
       </c>
       <c r="E105" s="7" t="n">
-        <v>-8146.12</v>
+        <v>-654.05</v>
       </c>
       <c r="F105" s="6" t="inlineStr">
         <is>
@@ -15375,115 +15388,115 @@
     <row r="106">
       <c r="A106" s="6" t="inlineStr">
         <is>
-          <t>208552710001</t>
-        </is>
-      </c>
-      <c r="B106" s="6" t="inlineStr">
-        <is>
-          <t>GRACIELLE CARRIERI D</t>
-        </is>
-      </c>
+          <t>197040090001</t>
+        </is>
+      </c>
+      <c r="B106" s="6" t="inlineStr"/>
       <c r="C106" s="6" t="n">
-        <v>-7543</v>
+        <v>0</v>
       </c>
       <c r="D106" s="6" t="n">
-        <v>0</v>
+        <v>-579</v>
       </c>
       <c r="E106" s="7" t="n">
-        <v>-7543</v>
+        <v>-579</v>
       </c>
       <c r="F106" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G106" s="6" t="inlineStr"/>
+      <c r="G106" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
         <is>
-          <t>256625110001</t>
-        </is>
-      </c>
-      <c r="B107" s="6" t="inlineStr">
-        <is>
-          <t>JUNIOR FESTA</t>
-        </is>
-      </c>
+          <t>092790520001</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="inlineStr"/>
       <c r="C107" s="6" t="n">
-        <v>-7508.4</v>
+        <v>-571.9299999999999</v>
       </c>
       <c r="D107" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E107" s="7" t="n">
-        <v>-7508.4</v>
+        <v>-571.9299999999999</v>
       </c>
       <c r="F107" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G107" s="6" t="inlineStr"/>
+      <c r="G107" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 571.93 | Financeiro: R$ -571.93 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
         <is>
-          <t>584880460001</t>
-        </is>
-      </c>
-      <c r="B108" s="6" t="inlineStr">
-        <is>
-          <t>MARIA CLARA DE MELO</t>
-        </is>
-      </c>
+          <t>541403360001</t>
+        </is>
+      </c>
+      <c r="B108" s="6" t="inlineStr"/>
       <c r="C108" s="6" t="n">
-        <v>-7170</v>
+        <v>0</v>
       </c>
       <c r="D108" s="6" t="n">
-        <v>0</v>
+        <v>-546</v>
       </c>
       <c r="E108" s="7" t="n">
-        <v>-7170</v>
+        <v>-546</v>
       </c>
       <c r="F108" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G108" s="6" t="inlineStr"/>
+      <c r="G108" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="6" t="inlineStr">
         <is>
-          <t>212653920001</t>
-        </is>
-      </c>
-      <c r="B109" s="6" t="inlineStr">
-        <is>
-          <t>SNC ESTRUTURAS</t>
-        </is>
-      </c>
+          <t>478967220001</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr"/>
       <c r="C109" s="6" t="n">
-        <v>-6600</v>
+        <v>0</v>
       </c>
       <c r="D109" s="6" t="n">
-        <v>0</v>
+        <v>504.5</v>
       </c>
       <c r="E109" s="7" t="n">
-        <v>-6600</v>
+        <v>504.5</v>
       </c>
       <c r="F109" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G109" s="6" t="inlineStr"/>
+      <c r="G109" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="6" t="inlineStr">
         <is>
-          <t>086839640002</t>
+          <t>563846820001</t>
         </is>
       </c>
       <c r="B110" s="6" t="inlineStr"/>
@@ -15491,10 +15504,10 @@
         <v>0</v>
       </c>
       <c r="D110" s="6" t="n">
-        <v>6480</v>
+        <v>-500</v>
       </c>
       <c r="E110" s="7" t="n">
-        <v>-6480</v>
+        <v>-500</v>
       </c>
       <c r="F110" s="6" t="inlineStr">
         <is>
@@ -15510,115 +15523,115 @@
     <row r="111">
       <c r="A111" s="6" t="inlineStr">
         <is>
-          <t>203255420001</t>
-        </is>
-      </c>
-      <c r="B111" s="6" t="inlineStr">
-        <is>
-          <t>ARCO IRIS</t>
-        </is>
-      </c>
+          <t>073212130001</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="inlineStr"/>
       <c r="C111" s="6" t="n">
-        <v>-6400</v>
+        <v>0</v>
       </c>
       <c r="D111" s="6" t="n">
-        <v>0</v>
+        <v>-464.68</v>
       </c>
       <c r="E111" s="7" t="n">
-        <v>-6400</v>
+        <v>-464.68</v>
       </c>
       <c r="F111" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G111" s="6" t="inlineStr"/>
+      <c r="G111" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="6" t="inlineStr">
         <is>
-          <t>319497090001</t>
-        </is>
-      </c>
-      <c r="B112" s="6" t="inlineStr">
-        <is>
-          <t>FONSECA &amp; CIA MAGAZI</t>
-        </is>
-      </c>
+          <t>205903530001</t>
+        </is>
+      </c>
+      <c r="B112" s="6" t="inlineStr"/>
       <c r="C112" s="6" t="n">
-        <v>-6357.8</v>
+        <v>-455</v>
       </c>
       <c r="D112" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E112" s="7" t="n">
-        <v>-6357.8</v>
+        <v>-455</v>
       </c>
       <c r="F112" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G112" s="6" t="inlineStr"/>
+      <c r="G112" s="6" t="inlineStr">
+        <is>
+          <t>Diferença: R$ 455.0 | Financeiro: R$ -455.0 | Contábil: R$ 0.0</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="inlineStr">
         <is>
-          <t>215131140001</t>
-        </is>
-      </c>
-      <c r="B113" s="6" t="inlineStr">
-        <is>
-          <t>LIBERDADE, SOCIEDADE</t>
-        </is>
-      </c>
+          <t>464900060001</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr"/>
       <c r="C113" s="6" t="n">
-        <v>-6250</v>
+        <v>0</v>
       </c>
       <c r="D113" s="6" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="E113" s="7" t="n">
-        <v>-6250</v>
+        <v>440</v>
       </c>
       <c r="F113" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G113" s="6" t="inlineStr"/>
+      <c r="G113" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="inlineStr">
         <is>
-          <t>137543370002</t>
-        </is>
-      </c>
-      <c r="B114" s="6" t="inlineStr">
-        <is>
-          <t>PLANO PRODUTOS PROMO</t>
-        </is>
-      </c>
+          <t>340283160015</t>
+        </is>
+      </c>
+      <c r="B114" s="6" t="inlineStr"/>
       <c r="C114" s="6" t="n">
-        <v>-5800</v>
+        <v>0</v>
       </c>
       <c r="D114" s="6" t="n">
-        <v>0</v>
+        <v>388.46</v>
       </c>
       <c r="E114" s="7" t="n">
-        <v>-5800</v>
+        <v>388.46</v>
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G114" s="6" t="inlineStr"/>
+      <c r="G114" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="6" t="inlineStr">
         <is>
-          <t>197595540001</t>
+          <t>282111100001</t>
         </is>
       </c>
       <c r="B115" s="6" t="inlineStr"/>
@@ -15626,10 +15639,10 @@
         <v>0</v>
       </c>
       <c r="D115" s="6" t="n">
-        <v>5800</v>
+        <v>365.72</v>
       </c>
       <c r="E115" s="7" t="n">
-        <v>-5800</v>
+        <v>365.72</v>
       </c>
       <c r="F115" s="6" t="inlineStr">
         <is>
@@ -15645,18 +15658,18 @@
     <row r="116">
       <c r="A116" s="6" t="inlineStr">
         <is>
-          <t>000000000000</t>
+          <t>015542850001</t>
         </is>
       </c>
       <c r="B116" s="6" t="inlineStr"/>
       <c r="C116" s="6" t="n">
-        <v>0</v>
+        <v>-1012.23</v>
       </c>
       <c r="D116" s="6" t="n">
-        <v>5636.09</v>
+        <v>674.8200000000001</v>
       </c>
       <c r="E116" s="7" t="n">
-        <v>-5636.09</v>
+        <v>-337.41</v>
       </c>
       <c r="F116" s="6" t="inlineStr">
         <is>
@@ -15665,41 +15678,41 @@
       </c>
       <c r="G116" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: CERTISIGN CERTIFICADORA: R$ 674.82</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="inlineStr">
         <is>
-          <t>00000000010</t>
-        </is>
-      </c>
-      <c r="B117" s="6" t="inlineStr">
-        <is>
-          <t>FORN. DIVERSOS</t>
-        </is>
-      </c>
+          <t>007806160001</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr"/>
       <c r="C117" s="6" t="n">
-        <v>-5551.68</v>
+        <v>0</v>
       </c>
       <c r="D117" s="6" t="n">
-        <v>0</v>
+        <v>319.8</v>
       </c>
       <c r="E117" s="7" t="n">
-        <v>-5551.68</v>
+        <v>319.8</v>
       </c>
       <c r="F117" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G117" s="6" t="inlineStr"/>
+      <c r="G117" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="inlineStr">
         <is>
-          <t>00000000010</t>
+          <t>143026110001</t>
         </is>
       </c>
       <c r="B118" s="6" t="inlineStr"/>
@@ -15707,10 +15720,10 @@
         <v>0</v>
       </c>
       <c r="D118" s="6" t="n">
-        <v>5551.68</v>
+        <v>-310.08</v>
       </c>
       <c r="E118" s="7" t="n">
-        <v>-5551.68</v>
+        <v>-310.08</v>
       </c>
       <c r="F118" s="6" t="inlineStr">
         <is>
@@ -15726,7 +15739,7 @@
     <row r="119">
       <c r="A119" s="6" t="inlineStr">
         <is>
-          <t>055291170009</t>
+          <t>547893460001</t>
         </is>
       </c>
       <c r="B119" s="6" t="inlineStr"/>
@@ -15734,10 +15747,10 @@
         <v>0</v>
       </c>
       <c r="D119" s="6" t="n">
-        <v>5395.6</v>
+        <v>-270.42</v>
       </c>
       <c r="E119" s="7" t="n">
-        <v>-5395.6</v>
+        <v>-270.42</v>
       </c>
       <c r="F119" s="6" t="inlineStr">
         <is>
@@ -15753,34 +15766,34 @@
     <row r="120">
       <c r="A120" s="6" t="inlineStr">
         <is>
-          <t>431625040001</t>
-        </is>
-      </c>
-      <c r="B120" s="6" t="inlineStr">
-        <is>
-          <t>MIL CORES GRAFICA DI</t>
-        </is>
-      </c>
+          <t>244985200001</t>
+        </is>
+      </c>
+      <c r="B120" s="6" t="inlineStr"/>
       <c r="C120" s="6" t="n">
-        <v>-5298</v>
+        <v>-1025.5</v>
       </c>
       <c r="D120" s="6" t="n">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="E120" s="7" t="n">
-        <v>-5298</v>
+        <v>-242.5</v>
       </c>
       <c r="F120" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G120" s="6" t="inlineStr"/>
+      <c r="G120" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento: ROSA CLARO ARTIGOS PARA FESTAS LTDA: R$ 783.0</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="6" t="inlineStr">
         <is>
-          <t>104267150001</t>
+          <t>129141480001</t>
         </is>
       </c>
       <c r="B121" s="6" t="inlineStr"/>
@@ -15788,10 +15801,10 @@
         <v>0</v>
       </c>
       <c r="D121" s="6" t="n">
-        <v>5281.45</v>
+        <v>240.71</v>
       </c>
       <c r="E121" s="7" t="n">
-        <v>-5281.45</v>
+        <v>240.71</v>
       </c>
       <c r="F121" s="6" t="inlineStr">
         <is>
@@ -15807,34 +15820,34 @@
     <row r="122">
       <c r="A122" s="6" t="inlineStr">
         <is>
-          <t>304572050001</t>
-        </is>
-      </c>
-      <c r="B122" s="6" t="inlineStr">
-        <is>
-          <t>FEEDZ TECNOLOGIA S/A</t>
-        </is>
-      </c>
+          <t>502373490001</t>
+        </is>
+      </c>
+      <c r="B122" s="6" t="inlineStr"/>
       <c r="C122" s="6" t="n">
-        <v>-4795.2</v>
+        <v>0</v>
       </c>
       <c r="D122" s="6" t="n">
-        <v>0</v>
+        <v>-240.71</v>
       </c>
       <c r="E122" s="7" t="n">
-        <v>-4795.2</v>
+        <v>-240.71</v>
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G122" s="6" t="inlineStr"/>
+      <c r="G122" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="inlineStr">
         <is>
-          <t>484370560001</t>
+          <t>040671910001</t>
         </is>
       </c>
       <c r="B123" s="6" t="inlineStr"/>
@@ -15842,10 +15855,10 @@
         <v>0</v>
       </c>
       <c r="D123" s="6" t="n">
-        <v>-4302.9</v>
+        <v>214.5</v>
       </c>
       <c r="E123" s="7" t="n">
-        <v>4302.9</v>
+        <v>214.5</v>
       </c>
       <c r="F123" s="6" t="inlineStr">
         <is>
@@ -15861,61 +15874,61 @@
     <row r="124">
       <c r="A124" s="6" t="inlineStr">
         <is>
-          <t>411478720001</t>
-        </is>
-      </c>
-      <c r="B124" s="6" t="inlineStr">
-        <is>
-          <t>CL PREMOLDADOS</t>
-        </is>
-      </c>
+          <t>005484730001</t>
+        </is>
+      </c>
+      <c r="B124" s="6" t="inlineStr"/>
       <c r="C124" s="6" t="n">
-        <v>-3800</v>
+        <v>0</v>
       </c>
       <c r="D124" s="6" t="n">
-        <v>0</v>
+        <v>-212.76</v>
       </c>
       <c r="E124" s="7" t="n">
-        <v>-3800</v>
+        <v>-212.76</v>
       </c>
       <c r="F124" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G124" s="6" t="inlineStr"/>
+      <c r="G124" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="inlineStr">
         <is>
-          <t>080857880001</t>
-        </is>
-      </c>
-      <c r="B125" s="6" t="inlineStr">
-        <is>
-          <t>DS DIAGNOSTICA</t>
-        </is>
-      </c>
+          <t>439723390001</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="inlineStr"/>
       <c r="C125" s="6" t="n">
-        <v>-3501</v>
+        <v>0</v>
       </c>
       <c r="D125" s="6" t="n">
-        <v>0</v>
+        <v>196.45</v>
       </c>
       <c r="E125" s="7" t="n">
-        <v>-3501</v>
+        <v>196.45</v>
       </c>
       <c r="F125" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G125" s="6" t="inlineStr"/>
+      <c r="G125" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="inlineStr">
         <is>
-          <t>080857880001</t>
+          <t>135057210000</t>
         </is>
       </c>
       <c r="B126" s="6" t="inlineStr"/>
@@ -15923,10 +15936,10 @@
         <v>0</v>
       </c>
       <c r="D126" s="6" t="n">
-        <v>3501</v>
+        <v>189</v>
       </c>
       <c r="E126" s="7" t="n">
-        <v>-3501</v>
+        <v>189</v>
       </c>
       <c r="F126" s="6" t="inlineStr">
         <is>
@@ -15942,34 +15955,34 @@
     <row r="127">
       <c r="A127" s="6" t="inlineStr">
         <is>
-          <t>519483440001</t>
-        </is>
-      </c>
-      <c r="B127" s="6" t="inlineStr">
-        <is>
-          <t>IDEAL SERVICOS</t>
-        </is>
-      </c>
+          <t>477108470001</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr"/>
       <c r="C127" s="6" t="n">
-        <v>-3460</v>
+        <v>0</v>
       </c>
       <c r="D127" s="6" t="n">
-        <v>0</v>
+        <v>155.88</v>
       </c>
       <c r="E127" s="7" t="n">
-        <v>-3460</v>
+        <v>155.88</v>
       </c>
       <c r="F127" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G127" s="6" t="inlineStr"/>
+      <c r="G127" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="inlineStr">
         <is>
-          <t>036827840683</t>
+          <t>221260980001</t>
         </is>
       </c>
       <c r="B128" s="6" t="inlineStr"/>
@@ -15977,10 +15990,10 @@
         <v>0</v>
       </c>
       <c r="D128" s="6" t="n">
-        <v>3300</v>
+        <v>-147</v>
       </c>
       <c r="E128" s="7" t="n">
-        <v>-3300</v>
+        <v>-147</v>
       </c>
       <c r="F128" s="6" t="inlineStr">
         <is>
@@ -15996,34 +16009,34 @@
     <row r="129">
       <c r="A129" s="6" t="inlineStr">
         <is>
-          <t>384602480001</t>
-        </is>
-      </c>
-      <c r="B129" s="6" t="inlineStr">
-        <is>
-          <t>RESULTADO ENGENHARIA</t>
-        </is>
-      </c>
+          <t>035980500001</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr"/>
       <c r="C129" s="6" t="n">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="D129" s="6" t="n">
-        <v>0</v>
+        <v>132.99</v>
       </c>
       <c r="E129" s="7" t="n">
-        <v>-3200</v>
+        <v>132.99</v>
       </c>
       <c r="F129" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G129" s="6" t="inlineStr"/>
+      <c r="G129" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="6" t="inlineStr">
         <is>
-          <t>030073310008</t>
+          <t>172545090001</t>
         </is>
       </c>
       <c r="B130" s="6" t="inlineStr"/>
@@ -16031,10 +16044,10 @@
         <v>0</v>
       </c>
       <c r="D130" s="6" t="n">
-        <v>3194.5</v>
+        <v>-103.03</v>
       </c>
       <c r="E130" s="7" t="n">
-        <v>-3194.5</v>
+        <v>-103.03</v>
       </c>
       <c r="F130" s="6" t="inlineStr">
         <is>
@@ -16050,61 +16063,61 @@
     <row r="131">
       <c r="A131" s="6" t="inlineStr">
         <is>
-          <t>104267150001</t>
-        </is>
-      </c>
-      <c r="B131" s="6" t="inlineStr">
-        <is>
-          <t>CONSORCIO OTIMO</t>
-        </is>
-      </c>
+          <t>030073310001</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr"/>
       <c r="C131" s="6" t="n">
-        <v>-3030</v>
+        <v>0</v>
       </c>
       <c r="D131" s="6" t="n">
-        <v>0</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="E131" s="7" t="n">
-        <v>-3030</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F131" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G131" s="6" t="inlineStr"/>
+      <c r="G131" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="inlineStr">
         <is>
-          <t>355211640001</t>
-        </is>
-      </c>
-      <c r="B132" s="6" t="inlineStr">
-        <is>
-          <t>AGATHA PAMELA</t>
-        </is>
-      </c>
+          <t>052226120001</t>
+        </is>
+      </c>
+      <c r="B132" s="6" t="inlineStr"/>
       <c r="C132" s="6" t="n">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="D132" s="6" t="n">
-        <v>0</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="E132" s="7" t="n">
-        <v>-3000</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="F132" s="6" t="inlineStr">
         <is>
           <t>Divergente</t>
         </is>
       </c>
-      <c r="G132" s="6" t="inlineStr"/>
+      <c r="G132" s="6" t="inlineStr">
+        <is>
+          <t>Adiantamento contábil sem correspondência financeira</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="6" t="inlineStr">
         <is>
-          <t>057502270001</t>
+          <t>644914590001</t>
         </is>
       </c>
       <c r="B133" s="6" t="inlineStr"/>
@@ -16112,10 +16125,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="6" t="n">
-        <v>2840</v>
+        <v>-48.7</v>
       </c>
       <c r="E133" s="7" t="n">
-        <v>-2840</v>
+        <v>-48.7</v>
       </c>
       <c r="F133" s="6" t="inlineStr">
         <is>
@@ -16129,1786 +16142,737 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="6" t="inlineStr">
-        <is>
-          <t>651772140001</t>
-        </is>
-      </c>
-      <c r="B134" s="6" t="inlineStr">
-        <is>
-          <t>PLEIADES DESENVOLVIM</t>
-        </is>
-      </c>
-      <c r="C134" s="6" t="n">
-        <v>-2800</v>
-      </c>
-      <c r="D134" s="6" t="n">
+      <c r="A134" s="8" t="inlineStr">
+        <is>
+          <t>00000000010</t>
+        </is>
+      </c>
+      <c r="B134" s="8" t="inlineStr"/>
+      <c r="C134" s="8" t="n">
+        <v>-5551.68</v>
+      </c>
+      <c r="D134" s="8" t="n">
+        <v>5551.68</v>
+      </c>
+      <c r="E134" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E134" s="7" t="n">
-        <v>-2800</v>
-      </c>
-      <c r="F134" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G134" s="6" t="inlineStr"/>
+      <c r="F134" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G134" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: FORNECEDORES DIVERSOS: R$ 5551.68</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="6" t="inlineStr">
-        <is>
-          <t>030073310010</t>
-        </is>
-      </c>
-      <c r="B135" s="6" t="inlineStr"/>
-      <c r="C135" s="6" t="n">
+      <c r="A135" s="8" t="inlineStr">
+        <is>
+          <t>009726960001</t>
+        </is>
+      </c>
+      <c r="B135" s="8" t="inlineStr"/>
+      <c r="C135" s="8" t="n">
+        <v>-22500</v>
+      </c>
+      <c r="D135" s="8" t="n">
+        <v>22500</v>
+      </c>
+      <c r="E135" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D135" s="6" t="n">
-        <v>-2664.52</v>
-      </c>
-      <c r="E135" s="7" t="n">
-        <v>2664.52</v>
-      </c>
-      <c r="F135" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G135" s="6" t="inlineStr">
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G135" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: V M RAMOS E CIA LTDA: R$ 22500.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="8" t="inlineStr">
+        <is>
+          <t>009726960003</t>
+        </is>
+      </c>
+      <c r="B136" s="8" t="inlineStr"/>
+      <c r="C136" s="8" t="n">
+        <v>-15300</v>
+      </c>
+      <c r="D136" s="8" t="n">
+        <v>15300</v>
+      </c>
+      <c r="E136" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G136" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: V M RAMOS E CIA LTDA: R$ 15300.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="8" t="inlineStr">
+        <is>
+          <t>012913870006</t>
+        </is>
+      </c>
+      <c r="B137" s="8" t="inlineStr"/>
+      <c r="C137" s="8" t="n">
+        <v>-15000</v>
+      </c>
+      <c r="D137" s="8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E137" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G137" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: GRAND POINT COMERCIO DE VEICULOS LTDA: R$ 15000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="8" t="inlineStr">
+        <is>
+          <t>049153150001</t>
+        </is>
+      </c>
+      <c r="B138" s="8" t="inlineStr"/>
+      <c r="C138" s="8" t="n">
+        <v>-51119.2</v>
+      </c>
+      <c r="D138" s="8" t="n">
+        <v>51119.2</v>
+      </c>
+      <c r="E138" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G138" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: VENTANA SERRA BR AGENCIAMENTO CARGAS LT: R$ 51119.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="8" t="inlineStr">
+        <is>
+          <t>063499160001</t>
+        </is>
+      </c>
+      <c r="B139" s="8" t="inlineStr"/>
+      <c r="C139" s="8" t="n">
+        <v>-321063.08</v>
+      </c>
+      <c r="D139" s="8" t="n">
+        <v>321063.08</v>
+      </c>
+      <c r="E139" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G139" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: ANDRITZ SEPARATION: R$ 321063.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="8" t="inlineStr">
+        <is>
+          <t>069427930001</t>
+        </is>
+      </c>
+      <c r="B140" s="8" t="inlineStr"/>
+      <c r="C140" s="8" t="n">
+        <v>-55395.27</v>
+      </c>
+      <c r="D140" s="8" t="n">
+        <v>55395.27</v>
+      </c>
+      <c r="E140" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G140" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: ELETRO PAINEL E MONTAGEM EIRELI: R$ 55395.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="8" t="inlineStr">
+        <is>
+          <t>071757250004</t>
+        </is>
+      </c>
+      <c r="B141" s="8" t="inlineStr"/>
+      <c r="C141" s="8" t="n">
+        <v>-37995.28</v>
+      </c>
+      <c r="D141" s="8" t="n">
+        <v>37995.28</v>
+      </c>
+      <c r="E141" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G141" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: WEG EQUIPAMENTOS ELETRICOS SA: R$ 37995.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="8" t="inlineStr">
+        <is>
+          <t>071757250010</t>
+        </is>
+      </c>
+      <c r="B142" s="8" t="inlineStr"/>
+      <c r="C142" s="8" t="n">
+        <v>-269722.11</v>
+      </c>
+      <c r="D142" s="8" t="n">
+        <v>269722.11</v>
+      </c>
+      <c r="E142" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G142" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: WEG EQUIPAMENTOS ELETRICOS SA: R$ 269722.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="8" t="inlineStr">
+        <is>
+          <t>073587610239</t>
+        </is>
+      </c>
+      <c r="B143" s="8" t="inlineStr"/>
+      <c r="C143" s="8" t="n">
+        <v>-50987.3</v>
+      </c>
+      <c r="D143" s="8" t="n">
+        <v>50987.3</v>
+      </c>
+      <c r="E143" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G143" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: GERDAU ACOS LONGOS SA: R$ 50987.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="8" t="inlineStr">
+        <is>
+          <t>077301550001</t>
+        </is>
+      </c>
+      <c r="B144" s="8" t="inlineStr"/>
+      <c r="C144" s="8" t="n">
+        <v>-37.99</v>
+      </c>
+      <c r="D144" s="8" t="n">
+        <v>37.99</v>
+      </c>
+      <c r="E144" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G144" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: SPELATION - ARTIGOS ESPORTIVOS LTDA: R$ 37.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="8" t="inlineStr">
+        <is>
+          <t>080857880001</t>
+        </is>
+      </c>
+      <c r="B145" s="8" t="inlineStr"/>
+      <c r="C145" s="8" t="n">
+        <v>-3501</v>
+      </c>
+      <c r="D145" s="8" t="n">
+        <v>3501</v>
+      </c>
+      <c r="E145" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G145" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: DS DIAGNOSTICA COMERCIO DE APARELHOS LAB: R$ 3501.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="8" t="inlineStr">
+        <is>
+          <t>129987090001</t>
+        </is>
+      </c>
+      <c r="B146" s="8" t="inlineStr"/>
+      <c r="C146" s="8" t="n">
+        <v>-750</v>
+      </c>
+      <c r="D146" s="8" t="n">
+        <v>750</v>
+      </c>
+      <c r="E146" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G146" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: PC BELO HORIZONTE COM DE MAT ELET: R$ 750.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="8" t="inlineStr">
+        <is>
+          <t>143099920001</t>
+        </is>
+      </c>
+      <c r="B147" s="8" t="inlineStr"/>
+      <c r="C147" s="8" t="n">
+        <v>-953130.27</v>
+      </c>
+      <c r="D147" s="8" t="n">
+        <v>953130.27</v>
+      </c>
+      <c r="E147" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G147" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: WEG DRIVES E CONTROLS AUTOMACAO LTDA: R$ 953130.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="8" t="inlineStr">
+        <is>
+          <t>171701500001</t>
+        </is>
+      </c>
+      <c r="B148" s="8" t="inlineStr"/>
+      <c r="C148" s="8" t="n">
+        <v>-37639.54</v>
+      </c>
+      <c r="D148" s="8" t="n">
+        <v>37639.54</v>
+      </c>
+      <c r="E148" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G148" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: VALLOUREC TUBOS DO BRASIL LTDA: R$ 37639.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="8" t="inlineStr">
+        <is>
+          <t>174313540001</t>
+        </is>
+      </c>
+      <c r="B149" s="8" t="inlineStr"/>
+      <c r="C149" s="8" t="n">
+        <v>-67763.95</v>
+      </c>
+      <c r="D149" s="8" t="n">
+        <v>67763.95</v>
+      </c>
+      <c r="E149" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G149" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: FERRO E ACO TAKONO LTDA: R$ 67763.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="8" t="inlineStr">
+        <is>
+          <t>174714420001</t>
+        </is>
+      </c>
+      <c r="B150" s="8" t="inlineStr"/>
+      <c r="C150" s="8" t="n">
+        <v>-700000</v>
+      </c>
+      <c r="D150" s="8" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E150" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G150" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: AGRO INDUSTRIAL BELA VISTA LTDA: R$ 700000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="8" t="inlineStr">
+        <is>
+          <t>263660000001</t>
+        </is>
+      </c>
+      <c r="B151" s="8" t="inlineStr"/>
+      <c r="C151" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G151" s="8" t="inlineStr">
         <is>
           <t>Adiantamento contábil sem correspondência financeira</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="6" t="inlineStr">
-        <is>
-          <t>073275290001</t>
-        </is>
-      </c>
-      <c r="B136" s="6" t="inlineStr">
-        <is>
-          <t>TECSOL</t>
-        </is>
-      </c>
-      <c r="C136" s="6" t="n">
-        <v>-2600</v>
-      </c>
-      <c r="D136" s="6" t="n">
+    <row r="152">
+      <c r="A152" s="8" t="inlineStr">
+        <is>
+          <t>283380620002</t>
+        </is>
+      </c>
+      <c r="B152" s="8" t="inlineStr"/>
+      <c r="C152" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E136" s="7" t="n">
-        <v>-2600</v>
-      </c>
-      <c r="F136" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G136" s="6" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="6" t="inlineStr">
-        <is>
-          <t>092641940001</t>
-        </is>
-      </c>
-      <c r="B137" s="6" t="inlineStr"/>
-      <c r="C137" s="6" t="n">
+      <c r="D152" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D137" s="6" t="n">
-        <v>2520</v>
-      </c>
-      <c r="E137" s="7" t="n">
-        <v>-2520</v>
-      </c>
-      <c r="F137" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G137" s="6" t="inlineStr">
+      <c r="E152" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G152" s="8" t="inlineStr">
         <is>
           <t>Adiantamento contábil sem correspondência financeira</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="6" t="inlineStr">
-        <is>
-          <t>172819730013</t>
-        </is>
-      </c>
-      <c r="B138" s="6" t="inlineStr"/>
-      <c r="C138" s="6" t="n">
+    <row r="153">
+      <c r="A153" s="8" t="inlineStr">
+        <is>
+          <t>293023480003</t>
+        </is>
+      </c>
+      <c r="B153" s="8" t="inlineStr"/>
+      <c r="C153" s="8" t="n">
+        <v>-13699.8</v>
+      </c>
+      <c r="D153" s="8" t="n">
+        <v>13699.8</v>
+      </c>
+      <c r="E153" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D138" s="6" t="n">
-        <v>-2444.16</v>
-      </c>
-      <c r="E138" s="7" t="n">
-        <v>2444.16</v>
-      </c>
-      <c r="F138" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G138" s="6" t="inlineStr">
+      <c r="F153" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G153" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: GURGELMIX MAQUINAS E FERRAMENTAS SA: R$ 13699.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="8" t="inlineStr">
+        <is>
+          <t>309133240001</t>
+        </is>
+      </c>
+      <c r="B154" s="8" t="inlineStr"/>
+      <c r="C154" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G154" s="8" t="inlineStr">
         <is>
           <t>Adiantamento contábil sem correspondência financeira</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="6" t="inlineStr">
-        <is>
-          <t>171949940004</t>
-        </is>
-      </c>
-      <c r="B139" s="6" t="inlineStr"/>
-      <c r="C139" s="6" t="n">
+    <row r="155">
+      <c r="A155" s="8" t="inlineStr">
+        <is>
+          <t>335925100035</t>
+        </is>
+      </c>
+      <c r="B155" s="8" t="inlineStr"/>
+      <c r="C155" s="8" t="n">
+        <v>-1210.22</v>
+      </c>
+      <c r="D155" s="8" t="n">
+        <v>1210.22</v>
+      </c>
+      <c r="E155" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D139" s="6" t="n">
-        <v>-2351.03</v>
-      </c>
-      <c r="E139" s="7" t="n">
-        <v>2351.03</v>
-      </c>
-      <c r="F139" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G139" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="6" t="inlineStr">
-        <is>
-          <t>131316920001</t>
-        </is>
-      </c>
-      <c r="B140" s="6" t="inlineStr"/>
-      <c r="C140" s="6" t="n">
+      <c r="F155" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G155" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: VALE SA: R$ 1210.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="8" t="inlineStr">
+        <is>
+          <t>335925100044</t>
+        </is>
+      </c>
+      <c r="B156" s="8" t="inlineStr"/>
+      <c r="C156" s="8" t="n">
+        <v>-48436.51</v>
+      </c>
+      <c r="D156" s="8" t="n">
+        <v>48436.51</v>
+      </c>
+      <c r="E156" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D140" s="6" t="n">
-        <v>-1960.17</v>
-      </c>
-      <c r="E140" s="7" t="n">
-        <v>1960.17</v>
-      </c>
-      <c r="F140" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G140" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="6" t="inlineStr">
-        <is>
-          <t>479609500265</t>
-        </is>
-      </c>
-      <c r="B141" s="6" t="inlineStr">
-        <is>
-          <t>MAGAZINE LUIZA S/A</t>
-        </is>
-      </c>
-      <c r="C141" s="6" t="n">
-        <v>-1747.26</v>
-      </c>
-      <c r="D141" s="6" t="n">
+      <c r="F156" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G156" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: VALE SA: R$ 48436.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="8" t="inlineStr">
+        <is>
+          <t>377200290003</t>
+        </is>
+      </c>
+      <c r="B157" s="8" t="inlineStr"/>
+      <c r="C157" s="8" t="n">
+        <v>-1257.46</v>
+      </c>
+      <c r="D157" s="8" t="n">
+        <v>1257.46</v>
+      </c>
+      <c r="E157" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E141" s="7" t="n">
-        <v>-1747.26</v>
-      </c>
-      <c r="F141" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G141" s="6" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="6" t="inlineStr">
-        <is>
-          <t>479609500265</t>
-        </is>
-      </c>
-      <c r="B142" s="6" t="inlineStr"/>
-      <c r="C142" s="6" t="n">
+      <c r="F157" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G157" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: ROMA FRANCE R AUTOMOVEIS E SERVICOS LTDA: R$ 1257.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="8" t="inlineStr">
+        <is>
+          <t>403391050001</t>
+        </is>
+      </c>
+      <c r="B158" s="8" t="inlineStr"/>
+      <c r="C158" s="8" t="n">
+        <v>-19168.5</v>
+      </c>
+      <c r="D158" s="8" t="n">
+        <v>19168.5</v>
+      </c>
+      <c r="E158" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D142" s="6" t="n">
-        <v>1747.26</v>
-      </c>
-      <c r="E142" s="7" t="n">
-        <v>-1747.26</v>
-      </c>
-      <c r="F142" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G142" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="6" t="inlineStr">
-        <is>
-          <t>214631740001</t>
-        </is>
-      </c>
-      <c r="B143" s="6" t="inlineStr"/>
-      <c r="C143" s="6" t="n">
+      <c r="F158" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G158" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: JR PRESTACAO SERV CONSTRUCOES EIRELI: R$ 19168.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="8" t="inlineStr">
+        <is>
+          <t>436264070006</t>
+        </is>
+      </c>
+      <c r="B159" s="8" t="inlineStr"/>
+      <c r="C159" s="8" t="n">
+        <v>-39300</v>
+      </c>
+      <c r="D159" s="8" t="n">
+        <v>39300</v>
+      </c>
+      <c r="E159" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D143" s="6" t="n">
-        <v>1599.9</v>
-      </c>
-      <c r="E143" s="7" t="n">
-        <v>-1599.9</v>
-      </c>
-      <c r="F143" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G143" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="6" t="inlineStr">
-        <is>
-          <t>214631740002</t>
-        </is>
-      </c>
-      <c r="B144" s="6" t="inlineStr"/>
-      <c r="C144" s="6" t="n">
+      <c r="F159" s="8" t="inlineStr">
+        <is>
+          <t>Conferido</t>
+        </is>
+      </c>
+      <c r="G159" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: SCHENCK PROCESS EQUIP INDUSTRIAIS LTDA: R$ 39300.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="8" t="inlineStr">
+        <is>
+          <t>436264070007</t>
+        </is>
+      </c>
+      <c r="B160" s="8" t="inlineStr"/>
+      <c r="C160" s="8" t="n">
+        <v>-114450</v>
+      </c>
+      <c r="D160" s="8" t="n">
+        <v>114450</v>
+      </c>
+      <c r="E160" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D144" s="6" t="n">
-        <v>-1599.9</v>
-      </c>
-      <c r="E144" s="7" t="n">
-        <v>1599.9</v>
-      </c>
-      <c r="F144" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G144" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="6" t="inlineStr">
-        <is>
-          <t>417110100001</t>
-        </is>
-      </c>
-      <c r="B145" s="6" t="inlineStr">
-        <is>
-          <t>DENISE BLEME</t>
-        </is>
-      </c>
-      <c r="C145" s="6" t="n">
-        <v>-1500</v>
-      </c>
-      <c r="D145" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" s="7" t="n">
-        <v>-1500</v>
-      </c>
-      <c r="F145" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G145" s="6" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="6" t="inlineStr">
-        <is>
-          <t>194682420001</t>
-        </is>
-      </c>
-      <c r="B146" s="6" t="inlineStr"/>
-      <c r="C146" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D146" s="6" t="n">
-        <v>1458.6</v>
-      </c>
-      <c r="E146" s="7" t="n">
-        <v>-1458.6</v>
-      </c>
-      <c r="F146" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G146" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="6" t="inlineStr">
-        <is>
-          <t>119726330002</t>
-        </is>
-      </c>
-      <c r="B147" s="6" t="inlineStr">
-        <is>
-          <t>LANTEX DO BRASIL IND</t>
-        </is>
-      </c>
-      <c r="C147" s="6" t="n">
-        <v>-1283.24</v>
-      </c>
-      <c r="D147" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E147" s="7" t="n">
-        <v>-1283.24</v>
-      </c>
-      <c r="F147" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G147" s="6" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="6" t="inlineStr">
-        <is>
-          <t>377200290003</t>
-        </is>
-      </c>
-      <c r="B148" s="6" t="inlineStr">
-        <is>
-          <t>ROMA FRANCE</t>
-        </is>
-      </c>
-      <c r="C148" s="6" t="n">
-        <v>-1257.46</v>
-      </c>
-      <c r="D148" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" s="7" t="n">
-        <v>-1257.46</v>
-      </c>
-      <c r="F148" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G148" s="6" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="6" t="inlineStr">
-        <is>
-          <t>377200290003</t>
-        </is>
-      </c>
-      <c r="B149" s="6" t="inlineStr"/>
-      <c r="C149" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" s="6" t="n">
-        <v>1257.46</v>
-      </c>
-      <c r="E149" s="7" t="n">
-        <v>-1257.46</v>
-      </c>
-      <c r="F149" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G149" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="6" t="inlineStr">
-        <is>
-          <t>335925100035</t>
-        </is>
-      </c>
-      <c r="B150" s="6" t="inlineStr">
-        <is>
-          <t>CVRD MINA DE MUTUCA</t>
-        </is>
-      </c>
-      <c r="C150" s="6" t="n">
-        <v>-1210.22</v>
-      </c>
-      <c r="D150" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" s="7" t="n">
-        <v>-1210.22</v>
-      </c>
-      <c r="F150" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G150" s="6" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="6" t="inlineStr">
-        <is>
-          <t>335925100035</t>
-        </is>
-      </c>
-      <c r="B151" s="6" t="inlineStr"/>
-      <c r="C151" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" s="6" t="n">
-        <v>1210.22</v>
-      </c>
-      <c r="E151" s="7" t="n">
-        <v>-1210.22</v>
-      </c>
-      <c r="F151" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G151" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="6" t="inlineStr">
-        <is>
-          <t>085841160009</t>
-        </is>
-      </c>
-      <c r="B152" s="6" t="inlineStr"/>
-      <c r="C152" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" s="6" t="n">
-        <v>1150.97</v>
-      </c>
-      <c r="E152" s="7" t="n">
-        <v>-1150.97</v>
-      </c>
-      <c r="F152" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G152" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="6" t="inlineStr"/>
-      <c r="B153" s="6" t="inlineStr">
-        <is>
-          <t>ESTADO  -00  -ESTADO</t>
-        </is>
-      </c>
-      <c r="C153" s="6" t="n">
-        <v>-1034.82</v>
-      </c>
-      <c r="D153" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" s="7" t="n">
-        <v>-1034.82</v>
-      </c>
-      <c r="F153" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G153" s="6" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="6" t="inlineStr">
-        <is>
-          <t>244985200001</t>
-        </is>
-      </c>
-      <c r="B154" s="6" t="inlineStr">
-        <is>
-          <t>ROSA CLARO ARTIGOS P</t>
-        </is>
-      </c>
-      <c r="C154" s="6" t="n">
-        <v>-1025.5</v>
-      </c>
-      <c r="D154" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" s="7" t="n">
-        <v>-1025.5</v>
-      </c>
-      <c r="F154" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G154" s="6" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="6" t="inlineStr">
-        <is>
-          <t>015542850001</t>
-        </is>
-      </c>
-      <c r="B155" s="6" t="inlineStr">
-        <is>
-          <t>CERTISIGN</t>
-        </is>
-      </c>
-      <c r="C155" s="6" t="n">
-        <v>-1012.23</v>
-      </c>
-      <c r="D155" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" s="7" t="n">
-        <v>-1012.23</v>
-      </c>
-      <c r="F155" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G155" s="6" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="6" t="inlineStr">
-        <is>
-          <t>171553420010</t>
-        </is>
-      </c>
-      <c r="B156" s="6" t="inlineStr"/>
-      <c r="C156" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" s="6" t="n">
-        <v>-864</v>
-      </c>
-      <c r="E156" s="7" t="n">
-        <v>864</v>
-      </c>
-      <c r="F156" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G156" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="6" t="inlineStr">
-        <is>
-          <t>060369390001</t>
-        </is>
-      </c>
-      <c r="B157" s="6" t="inlineStr"/>
-      <c r="C157" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" s="6" t="n">
-        <v>-844</v>
-      </c>
-      <c r="E157" s="7" t="n">
-        <v>844</v>
-      </c>
-      <c r="F157" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G157" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="6" t="inlineStr">
-        <is>
-          <t>043802600001</t>
-        </is>
-      </c>
-      <c r="B158" s="6" t="inlineStr"/>
-      <c r="C158" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" s="6" t="n">
-        <v>-840</v>
-      </c>
-      <c r="E158" s="7" t="n">
-        <v>840</v>
-      </c>
-      <c r="F158" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G158" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="6" t="inlineStr">
-        <is>
-          <t>244985200001</t>
-        </is>
-      </c>
-      <c r="B159" s="6" t="inlineStr"/>
-      <c r="C159" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" s="6" t="n">
-        <v>783</v>
-      </c>
-      <c r="E159" s="7" t="n">
-        <v>-783</v>
-      </c>
-      <c r="F159" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G159" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="6" t="inlineStr">
-        <is>
-          <t>079438810001</t>
-        </is>
-      </c>
-      <c r="B160" s="6" t="inlineStr">
-        <is>
-          <t>GRAFICA CENTRAL</t>
-        </is>
-      </c>
-      <c r="C160" s="6" t="n">
-        <v>-770</v>
-      </c>
-      <c r="D160" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" s="7" t="n">
-        <v>-770</v>
-      </c>
-      <c r="F160" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G160" s="6" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="6" t="inlineStr">
-        <is>
-          <t>076499950001</t>
-        </is>
-      </c>
-      <c r="B161" s="6" t="inlineStr">
-        <is>
-          <t>BE ME CAR AMBULANCIA</t>
-        </is>
-      </c>
-      <c r="C161" s="6" t="n">
-        <v>-762</v>
-      </c>
-      <c r="D161" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" s="7" t="n">
-        <v>-762</v>
-      </c>
-      <c r="F161" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G161" s="6" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="6" t="inlineStr">
-        <is>
-          <t>129987090001</t>
-        </is>
-      </c>
-      <c r="B162" s="6" t="inlineStr">
-        <is>
-          <t>PC BELO HORIZONTE</t>
-        </is>
-      </c>
-      <c r="C162" s="6" t="n">
-        <v>-750</v>
-      </c>
-      <c r="D162" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" s="7" t="n">
-        <v>-750</v>
-      </c>
-      <c r="F162" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G162" s="6" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="6" t="inlineStr">
-        <is>
-          <t>129987090001</t>
-        </is>
-      </c>
-      <c r="B163" s="6" t="inlineStr"/>
-      <c r="C163" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" s="6" t="n">
-        <v>750</v>
-      </c>
-      <c r="E163" s="7" t="n">
-        <v>-750</v>
-      </c>
-      <c r="F163" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G163" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="6" t="inlineStr">
-        <is>
-          <t>015542850001</t>
-        </is>
-      </c>
-      <c r="B164" s="6" t="inlineStr"/>
-      <c r="C164" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" s="6" t="n">
-        <v>674.8200000000001</v>
-      </c>
-      <c r="E164" s="7" t="n">
-        <v>-674.8200000000001</v>
-      </c>
-      <c r="F164" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G164" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="6" t="inlineStr">
-        <is>
-          <t>261226840001</t>
-        </is>
-      </c>
-      <c r="B165" s="6" t="inlineStr">
-        <is>
-          <t>VIACAO GW</t>
-        </is>
-      </c>
-      <c r="C165" s="6" t="n">
-        <v>-662.9</v>
-      </c>
-      <c r="D165" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" s="7" t="n">
-        <v>-662.9</v>
-      </c>
-      <c r="F165" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G165" s="6" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="6" t="inlineStr">
-        <is>
-          <t>206958820001</t>
-        </is>
-      </c>
-      <c r="B166" s="6" t="inlineStr"/>
-      <c r="C166" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" s="6" t="n">
-        <v>-654.05</v>
-      </c>
-      <c r="E166" s="7" t="n">
-        <v>654.05</v>
-      </c>
-      <c r="F166" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G166" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="6" t="inlineStr">
-        <is>
-          <t>335925100001</t>
-        </is>
-      </c>
-      <c r="B167" s="6" t="inlineStr">
-        <is>
-          <t>VALE</t>
-        </is>
-      </c>
-      <c r="C167" s="6" t="n">
-        <v>-591.92</v>
-      </c>
-      <c r="D167" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" s="7" t="n">
-        <v>-591.92</v>
-      </c>
-      <c r="F167" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G167" s="6" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="6" t="inlineStr">
-        <is>
-          <t>197040090001</t>
-        </is>
-      </c>
-      <c r="B168" s="6" t="inlineStr"/>
-      <c r="C168" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" s="6" t="n">
-        <v>-579</v>
-      </c>
-      <c r="E168" s="7" t="n">
-        <v>579</v>
-      </c>
-      <c r="F168" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G168" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="6" t="inlineStr">
-        <is>
-          <t>092790520001</t>
-        </is>
-      </c>
-      <c r="B169" s="6" t="inlineStr">
-        <is>
-          <t>LEBBE COMUNICACAO</t>
-        </is>
-      </c>
-      <c r="C169" s="6" t="n">
-        <v>-571.9299999999999</v>
-      </c>
-      <c r="D169" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" s="7" t="n">
-        <v>-571.9299999999999</v>
-      </c>
-      <c r="F169" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G169" s="6" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="6" t="inlineStr">
-        <is>
-          <t>541403360001</t>
-        </is>
-      </c>
-      <c r="B170" s="6" t="inlineStr"/>
-      <c r="C170" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" s="6" t="n">
-        <v>-546</v>
-      </c>
-      <c r="E170" s="7" t="n">
-        <v>546</v>
-      </c>
-      <c r="F170" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G170" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="6" t="inlineStr">
-        <is>
-          <t>478967220001</t>
-        </is>
-      </c>
-      <c r="B171" s="6" t="inlineStr"/>
-      <c r="C171" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" s="6" t="n">
-        <v>504.5</v>
-      </c>
-      <c r="E171" s="7" t="n">
-        <v>-504.5</v>
-      </c>
-      <c r="F171" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G171" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="6" t="inlineStr">
-        <is>
-          <t>563846820001</t>
-        </is>
-      </c>
-      <c r="B172" s="6" t="inlineStr"/>
-      <c r="C172" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" s="6" t="n">
-        <v>-500</v>
-      </c>
-      <c r="E172" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="F172" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G172" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="6" t="inlineStr">
-        <is>
-          <t>073212130001</t>
-        </is>
-      </c>
-      <c r="B173" s="6" t="inlineStr"/>
-      <c r="C173" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D173" s="6" t="n">
-        <v>-464.68</v>
-      </c>
-      <c r="E173" s="7" t="n">
-        <v>464.68</v>
-      </c>
-      <c r="F173" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G173" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="6" t="inlineStr">
-        <is>
-          <t>205903530001</t>
-        </is>
-      </c>
-      <c r="B174" s="6" t="inlineStr">
-        <is>
-          <t>CENTRAL DOS PARA BRI</t>
-        </is>
-      </c>
-      <c r="C174" s="6" t="n">
-        <v>-455</v>
-      </c>
-      <c r="D174" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="7" t="n">
-        <v>-455</v>
-      </c>
-      <c r="F174" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G174" s="6" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="6" t="inlineStr">
-        <is>
-          <t>464900060001</t>
-        </is>
-      </c>
-      <c r="B175" s="6" t="inlineStr"/>
-      <c r="C175" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" s="6" t="n">
-        <v>440</v>
-      </c>
-      <c r="E175" s="7" t="n">
-        <v>-440</v>
-      </c>
-      <c r="F175" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G175" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="6" t="inlineStr">
-        <is>
-          <t>340283160015</t>
-        </is>
-      </c>
-      <c r="B176" s="6" t="inlineStr"/>
-      <c r="C176" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" s="6" t="n">
-        <v>388.46</v>
-      </c>
-      <c r="E176" s="7" t="n">
-        <v>-388.46</v>
-      </c>
-      <c r="F176" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G176" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="6" t="inlineStr">
-        <is>
-          <t>282111100001</t>
-        </is>
-      </c>
-      <c r="B177" s="6" t="inlineStr"/>
-      <c r="C177" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" s="6" t="n">
-        <v>365.72</v>
-      </c>
-      <c r="E177" s="7" t="n">
-        <v>-365.72</v>
-      </c>
-      <c r="F177" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G177" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="6" t="inlineStr">
-        <is>
-          <t>007806160001</t>
-        </is>
-      </c>
-      <c r="B178" s="6" t="inlineStr"/>
-      <c r="C178" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" s="6" t="n">
-        <v>319.8</v>
-      </c>
-      <c r="E178" s="7" t="n">
-        <v>-319.8</v>
-      </c>
-      <c r="F178" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G178" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="6" t="inlineStr">
-        <is>
-          <t>143026110001</t>
-        </is>
-      </c>
-      <c r="B179" s="6" t="inlineStr"/>
-      <c r="C179" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" s="6" t="n">
-        <v>-310.08</v>
-      </c>
-      <c r="E179" s="7" t="n">
-        <v>310.08</v>
-      </c>
-      <c r="F179" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G179" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="6" t="inlineStr">
-        <is>
-          <t>547893460001</t>
-        </is>
-      </c>
-      <c r="B180" s="6" t="inlineStr"/>
-      <c r="C180" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" s="6" t="n">
-        <v>-270.42</v>
-      </c>
-      <c r="E180" s="7" t="n">
-        <v>270.42</v>
-      </c>
-      <c r="F180" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G180" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="6" t="inlineStr">
-        <is>
-          <t>129141480001</t>
-        </is>
-      </c>
-      <c r="B181" s="6" t="inlineStr"/>
-      <c r="C181" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" s="6" t="n">
-        <v>240.71</v>
-      </c>
-      <c r="E181" s="7" t="n">
-        <v>-240.71</v>
-      </c>
-      <c r="F181" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G181" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="6" t="inlineStr">
-        <is>
-          <t>502373490001</t>
-        </is>
-      </c>
-      <c r="B182" s="6" t="inlineStr"/>
-      <c r="C182" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" s="6" t="n">
-        <v>-240.71</v>
-      </c>
-      <c r="E182" s="7" t="n">
-        <v>240.71</v>
-      </c>
-      <c r="F182" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G182" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="6" t="inlineStr">
-        <is>
-          <t>040671910001</t>
-        </is>
-      </c>
-      <c r="B183" s="6" t="inlineStr"/>
-      <c r="C183" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" s="6" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="E183" s="7" t="n">
-        <v>-214.5</v>
-      </c>
-      <c r="F183" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G183" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="6" t="inlineStr">
-        <is>
-          <t>005484730001</t>
-        </is>
-      </c>
-      <c r="B184" s="6" t="inlineStr"/>
-      <c r="C184" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" s="6" t="n">
-        <v>-212.76</v>
-      </c>
-      <c r="E184" s="7" t="n">
-        <v>212.76</v>
-      </c>
-      <c r="F184" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G184" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="6" t="inlineStr">
-        <is>
-          <t>439723390001</t>
-        </is>
-      </c>
-      <c r="B185" s="6" t="inlineStr"/>
-      <c r="C185" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" s="6" t="n">
-        <v>196.45</v>
-      </c>
-      <c r="E185" s="7" t="n">
-        <v>-196.45</v>
-      </c>
-      <c r="F185" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G185" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="6" t="inlineStr">
-        <is>
-          <t>135057210000</t>
-        </is>
-      </c>
-      <c r="B186" s="6" t="inlineStr"/>
-      <c r="C186" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" s="6" t="n">
-        <v>189</v>
-      </c>
-      <c r="E186" s="7" t="n">
-        <v>-189</v>
-      </c>
-      <c r="F186" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G186" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="6" t="inlineStr">
-        <is>
-          <t>477108470001</t>
-        </is>
-      </c>
-      <c r="B187" s="6" t="inlineStr"/>
-      <c r="C187" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" s="6" t="n">
-        <v>155.88</v>
-      </c>
-      <c r="E187" s="7" t="n">
-        <v>-155.88</v>
-      </c>
-      <c r="F187" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G187" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="6" t="inlineStr">
-        <is>
-          <t>221260980001</t>
-        </is>
-      </c>
-      <c r="B188" s="6" t="inlineStr"/>
-      <c r="C188" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" s="6" t="n">
-        <v>-147</v>
-      </c>
-      <c r="E188" s="7" t="n">
-        <v>147</v>
-      </c>
-      <c r="F188" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G188" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="6" t="inlineStr">
-        <is>
-          <t>035980500001</t>
-        </is>
-      </c>
-      <c r="B189" s="6" t="inlineStr"/>
-      <c r="C189" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" s="6" t="n">
-        <v>132.99</v>
-      </c>
-      <c r="E189" s="7" t="n">
-        <v>-132.99</v>
-      </c>
-      <c r="F189" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G189" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="6" t="inlineStr">
-        <is>
-          <t>172545090001</t>
-        </is>
-      </c>
-      <c r="B190" s="6" t="inlineStr"/>
-      <c r="C190" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" s="6" t="n">
-        <v>-103.03</v>
-      </c>
-      <c r="E190" s="7" t="n">
-        <v>103.03</v>
-      </c>
-      <c r="F190" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G190" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="6" t="inlineStr">
-        <is>
-          <t>030073310001</t>
-        </is>
-      </c>
-      <c r="B191" s="6" t="inlineStr"/>
-      <c r="C191" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" s="6" t="n">
-        <v>99.98999999999999</v>
-      </c>
-      <c r="E191" s="7" t="n">
-        <v>-99.98999999999999</v>
-      </c>
-      <c r="F191" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G191" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="6" t="inlineStr">
-        <is>
-          <t>479609501002</t>
-        </is>
-      </c>
-      <c r="B192" s="6" t="inlineStr">
-        <is>
-          <t>MAGAZINE LUIZA S/A</t>
-        </is>
-      </c>
-      <c r="C192" s="6" t="n">
-        <v>-86.3</v>
-      </c>
-      <c r="D192" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E192" s="7" t="n">
-        <v>-86.3</v>
-      </c>
-      <c r="F192" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G192" s="6" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="6" t="inlineStr">
-        <is>
-          <t>052226120001</t>
-        </is>
-      </c>
-      <c r="B193" s="6" t="inlineStr"/>
-      <c r="C193" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" s="6" t="n">
-        <v>68.34999999999999</v>
-      </c>
-      <c r="E193" s="7" t="n">
-        <v>-68.34999999999999</v>
-      </c>
-      <c r="F193" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G193" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="6" t="inlineStr">
-        <is>
-          <t>644914590001</t>
-        </is>
-      </c>
-      <c r="B194" s="6" t="inlineStr"/>
-      <c r="C194" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" s="6" t="n">
-        <v>-48.7</v>
-      </c>
-      <c r="E194" s="7" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="F194" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G194" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="6" t="inlineStr">
-        <is>
-          <t>077301550001</t>
-        </is>
-      </c>
-      <c r="B195" s="6" t="inlineStr">
-        <is>
-          <t>SPELATION</t>
-        </is>
-      </c>
-      <c r="C195" s="6" t="n">
-        <v>-37.99</v>
-      </c>
-      <c r="D195" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E195" s="7" t="n">
-        <v>-37.99</v>
-      </c>
-      <c r="F195" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G195" s="6" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="6" t="inlineStr">
-        <is>
-          <t>077301550001</t>
-        </is>
-      </c>
-      <c r="B196" s="6" t="inlineStr"/>
-      <c r="C196" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" s="6" t="n">
-        <v>37.99</v>
-      </c>
-      <c r="E196" s="7" t="n">
-        <v>-37.99</v>
-      </c>
-      <c r="F196" s="6" t="inlineStr">
-        <is>
-          <t>Divergente</t>
-        </is>
-      </c>
-      <c r="G196" s="6" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="8" t="inlineStr">
-        <is>
-          <t>263660000001</t>
-        </is>
-      </c>
-      <c r="B197" s="8" t="inlineStr"/>
-      <c r="C197" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F197" s="8" t="inlineStr">
+      <c r="F160" s="8" t="inlineStr">
         <is>
           <t>Conferido</t>
         </is>
       </c>
-      <c r="G197" s="8" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="8" t="inlineStr">
-        <is>
-          <t>283380620002</t>
-        </is>
-      </c>
-      <c r="B198" s="8" t="inlineStr"/>
-      <c r="C198" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F198" s="8" t="inlineStr">
-        <is>
-          <t>Conferido</t>
-        </is>
-      </c>
-      <c r="G198" s="8" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="8" t="inlineStr">
-        <is>
-          <t>309133240001</t>
-        </is>
-      </c>
-      <c r="B199" s="8" t="inlineStr"/>
-      <c r="C199" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F199" s="8" t="inlineStr">
-        <is>
-          <t>Conferido</t>
-        </is>
-      </c>
-      <c r="G199" s="8" t="inlineStr">
-        <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+      <c r="G160" s="8" t="inlineStr">
+        <is>
+          <t>Adiantamento: SANDVIK ROCK PROCESSING BRASIL LTDA: R$ 114450.0</t>
         </is>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
-  <autoFilter ref="A1:G199"/>
+  <autoFilter ref="A1:G160"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -17932,24 +16896,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Data e Hora do Processamento</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>21/10/2025 10:42:12</t>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>21/10/2025 14:17:09</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>Período de Referência</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>01/10/2025 a 21/10/2025</t>
         </is>
@@ -17962,7 +16926,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
@@ -17972,7 +16936,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -17982,7 +16946,7 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>195</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
@@ -18015,7 +16979,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>R$ 13,910,157.25</t>
+          <t>R$ 13,929,944.01</t>
         </is>
       </c>
     </row>
@@ -18027,17 +16991,17 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>R$ 26,421,780.55</t>
+          <t>R$ 26,401,993.79</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="inlineStr">
+      <c r="A10" s="13" t="inlineStr">
         <is>
           <t>--- CONFIGURAÇÕES ---</t>
         </is>
       </c>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="13" t="inlineStr">
         <is>
           <t>---</t>
         </is>

--- a/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
@@ -16903,7 +16903,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>21/10/2025 14:17:09</t>
+          <t>21/10/2025 15:17:53</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
@@ -16903,7 +16903,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>21/10/2025 15:17:53</t>
+          <t>21/10/2025 15:48:45</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
@@ -16903,7 +16903,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>21/10/2025 15:48:45</t>
+          <t>21/10/2025 16:08:55</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
@@ -16903,7 +16903,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>21/10/2025 16:08:55</t>
+          <t>21/10/2025 16:16:54</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-10-2025_a_21-10-2025_ADIANTAMENTOS.xlsx
@@ -16903,7 +16903,7 @@
       </c>
       <c r="B1" s="11" t="inlineStr">
         <is>
-          <t>21/10/2025 16:16:54</t>
+          <t>21/10/2025 16:49:50</t>
         </is>
       </c>
     </row>
